--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentscoconino-my.sharepoint.com/personal/sgmer_students_coconino_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C377507B-FC15-44EF-BD85-EE9B095F2ACA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{464D5225-60BE-4D91-8870-DE88819A1CE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="227">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -321,9 +321,6 @@
     <t>checkMothersDay</t>
   </si>
   <si>
-    <t>Nothing done</t>
-  </si>
-  <si>
     <t>Mother's Day</t>
   </si>
   <si>
@@ -555,90 +552,55 @@
     <t>checkFrost - first</t>
   </si>
   <si>
+    <t xml:space="preserve"> First frost in autumn</t>
+  </si>
+  <si>
+    <t>after 5 days</t>
+  </si>
+  <si>
+    <t>#Frost #Shrinkage</t>
+  </si>
+  <si>
+    <t>"Today we had the first frost in %s days. I guess winter is coming."</t>
+  </si>
+  <si>
+    <t>checkFrost - late</t>
+  </si>
+  <si>
+    <t>Late frost after growing season start</t>
+  </si>
+  <si>
+    <t>#Frost #HarvardForest</t>
+  </si>
+  <si>
+    <t>"We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful."</t>
+  </si>
+  <si>
+    <t>checkHeatWave</t>
+  </si>
+  <si>
     <t>tbt</t>
   </si>
   <si>
-    <t xml:space="preserve"> First frost in autumn</t>
-  </si>
-  <si>
-    <t>after 5 days</t>
-  </si>
-  <si>
-    <t>#Frost #Shrinkage</t>
-  </si>
-  <si>
-    <t>checkFrost - late</t>
-  </si>
-  <si>
-    <t>Late frost after growing season start</t>
-  </si>
-  <si>
-    <t>#Frost #HarvardForest</t>
-  </si>
-  <si>
-    <t>"We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful."</t>
-  </si>
-  <si>
-    <t>checkHeatwave</t>
+    <t>two or more consecutive days with maximum temperature in the 90th percentile.</t>
+  </si>
+  <si>
+    <t>after 2 days</t>
+  </si>
+  <si>
+    <t>#Heatwave</t>
+  </si>
+  <si>
+    <t>"It has been extremely hot for %s days now. When is this heatwave going to end?"</t>
+  </si>
+  <si>
+    <t>checkDrought</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Heat wave</t>
-  </si>
-  <si>
-    <t>#Heatwave</t>
-  </si>
-  <si>
-    <r>
-      <t>"It's a heatwave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,sprintf(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>"it's hot since %d days"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,i),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Heatwave!!!!"</t>
-    </r>
-  </si>
-  <si>
-    <t>checkDrought</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drought </t>
-  </si>
-  <si>
-    <t>"There's been a frost for %d days now"</t>
   </si>
   <si>
     <t>checkStorm</t>
@@ -846,7 +808,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -857,12 +819,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
@@ -923,11 +879,11 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,8 +1245,8 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <pane xSplit="3" topLeftCell="D30" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1691,705 +1647,738 @@
         <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2">
         <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2">
         <v>10</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2">
         <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75"/>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G32" s="2">
         <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" t="s">
         <v>104</v>
-      </c>
-      <c r="J32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
         <v>108</v>
-      </c>
-      <c r="J33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G34" s="2">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" s="2">
         <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="I44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="E47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G47" s="2">
         <v>5</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G48" s="2">
         <v>5</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
@@ -2406,30 +2395,28 @@
         <v>157</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>161</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75">
@@ -2437,13 +2424,13 @@
         <v>162</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75">
@@ -2459,7 +2446,7 @@
         <v>165</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
         <v>166</v>
@@ -2473,7 +2460,7 @@
         <v>168</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
         <v>169</v>
@@ -2484,7 +2471,7 @@
         <v>170</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>171</v>
@@ -2495,7 +2482,7 @@
         <v>172</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
         <v>173</v>
@@ -2512,7 +2499,7 @@
         <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
         <v>176</v>
@@ -2523,7 +2510,7 @@
         <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
@@ -2534,7 +2521,7 @@
         <v>179</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
         <v>180</v>
@@ -2545,7 +2532,7 @@
         <v>181</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
         <v>182</v>
@@ -2556,7 +2543,7 @@
         <v>183</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
         <v>184</v>
@@ -2567,7 +2554,7 @@
         <v>185</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
         <v>186</v>
@@ -2578,7 +2565,7 @@
         <v>187</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
         <v>188</v>
@@ -2589,7 +2576,7 @@
         <v>189</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
         <v>190</v>
@@ -2603,7 +2590,7 @@
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>192</v>
@@ -2611,7 +2598,7 @@
     </row>
     <row r="72" spans="1:3" ht="15.75">
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>193</v>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentscoconino-my.sharepoint.com/personal/sgmer_students_coconino_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1ab5\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464D5225-60BE-4D91-8870-DE88819A1CE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5DC5E9-9F9C-4FE9-A739-9748ECCE4AF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
   <sheets>
     <sheet name="messagesText" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="270">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -147,12 +147,21 @@
     <t>FigureName</t>
   </si>
   <si>
+    <t>FigureDescription</t>
+  </si>
+  <si>
     <t>Hashtags</t>
   </si>
   <si>
+    <t>Treatment</t>
+  </si>
+  <si>
     <t>Message</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>checkEvents.R</t>
   </si>
   <si>
@@ -582,7 +591,7 @@
     <t>tbt</t>
   </si>
   <si>
-    <t>two or more consecutive days with maximum temperature in the 90th percentile.</t>
+    <t>two or more consecutive days with daily maximum temperature in the 90th percentile for the month. Maybe I should compare this to a base line longer ago.</t>
   </si>
   <si>
     <t>after 2 days</t>
@@ -591,7 +600,7 @@
     <t>#Heatwave</t>
   </si>
   <si>
-    <t>"It has been extremely hot for %s days now. When is this heatwave going to end?"</t>
+    <t>"The last %s days were extremely hot for %s. When is this heatwave going to end?"</t>
   </si>
   <si>
     <t>checkDrought</t>
@@ -609,6 +618,12 @@
     <t>Heavy storm</t>
   </si>
   <si>
+    <t>daily maximum windspeed above 5m/s</t>
+  </si>
+  <si>
+    <t>"It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm."</t>
+  </si>
+  <si>
     <t>checkMapleSugaringSeason</t>
   </si>
   <si>
@@ -703,6 +718,120 @@
   </si>
   <si>
     <t>Explain tree architecture</t>
+  </si>
+  <si>
+    <t>checkCommunity.R</t>
+  </si>
+  <si>
+    <t>Explain seed dispersal</t>
+  </si>
+  <si>
+    <t>Sept or Oct</t>
+  </si>
+  <si>
+    <t>red oak acorn</t>
+  </si>
+  <si>
+    <t>EnviroFact</t>
+  </si>
+  <si>
+    <t>In fall, I drop seeds (acorns) that are food for 100+ types of wildlife. Many of these animals, like squirrels and blue jays, carry my acorns a great distance before storing them underground. They become accidental gardeners of new trees!</t>
+  </si>
+  <si>
+    <t>red oak &amp; white oak acorns, side by side</t>
+  </si>
+  <si>
+    <t>All acorns are not created equal. Mine are packed with protein, fat, &amp; calories, making them a high-value food for wildlife - but they are also high in bad-tasting tannins. Acorns of white oak trees, also found in my neighborhood, are a lower-value food but much tastier, so animals snap them up.</t>
+  </si>
+  <si>
+    <t>Explain herbivory </t>
+  </si>
+  <si>
+    <t>Can we connect the tree's growth rate (or an automated reading of LAI) with regular (not gypsy moth) insect herbivory?</t>
+  </si>
+  <si>
+    <t>spring? summer?</t>
+  </si>
+  <si>
+    <t>non-gypsy moth insect eating red oak leaf</t>
+  </si>
+  <si>
+    <t>SensorData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In &lt;Month&gt;, when sapflow is strongest, insects are busily eating my leaves because they are full of water and sugars. By the end of an average summer, insects will have eaten x% of my leaves. </t>
+  </si>
+  <si>
+    <t>Explain gypsy moth herbivory </t>
+  </si>
+  <si>
+    <t>(only if there is a mid-summer change in leaf area index)</t>
+  </si>
+  <si>
+    <t>July or August</t>
+  </si>
+  <si>
+    <t>Witness Tree phenocam showing reduced leaf cover</t>
+  </si>
+  <si>
+    <t>Insects eating my nutrient-packed leaves is just a part of life for me. In fact, even when an invasive caterpillar like the gypsy moth eats ALL of my leaves in early summer, I usually have enough stored resources to put a whole new set of leaves in late summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain gypsy moth herbivory </t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>gypsy moth caterpillar on red oak leaf OR this video https://www.youtube.com/watch?v=9NdmobittS0</t>
+  </si>
+  <si>
+    <t>The gypsy moth is one of the most destructive invasive species in the world. It will eat over 500 plant species, but it especially likes to eat oak leaves! Scientists at Harvard Forest are studying what happens to oaks like me when gypsy moth densities are high. &lt;link to study&gt;</t>
+  </si>
+  <si>
+    <t>Explain gypsy moth</t>
+  </si>
+  <si>
+    <t>November to April</t>
+  </si>
+  <si>
+    <t>https://search.creativecommons.org/photos/f014b9f3-bff6-41f9-8dd9-dfd18f55eca6</t>
+  </si>
+  <si>
+    <t>Gypsy moth egg-sacs each contain &lt;x&gt; eggs, which will hatch into caterpillars in spring. They can be found by the dozen on the bark of mature oak trees like me.</t>
+  </si>
+  <si>
+    <t>Explain mycorrhizal symbionts</t>
+  </si>
+  <si>
+    <t>Explain competition with neighboring trees</t>
+  </si>
+  <si>
+    <t>Explain relationships with shade-loving herb-layer plants (if any)</t>
+  </si>
+  <si>
+    <t>Explain parasites (gall wasps)</t>
+  </si>
+  <si>
+    <t>gall wasp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever seen those round shaped balls laying all over the ground? Those may not be seeds but are oak apples. They are caused by a non-harmful gall wasp that lays her eggs on plants. The eggs release plant hormone replicas that cause the tree to create a chamber around eggs. </t>
+  </si>
+  <si>
+    <t>Explain the visitors (animals) that come to the tree</t>
+  </si>
+  <si>
+    <t>any time</t>
+  </si>
+  <si>
+    <t>wildlife camera photo of animals</t>
+  </si>
+  <si>
+    <t>Look who visited me this past week!</t>
+  </si>
+  <si>
+    <t>Make sure the figures match with the season when tweeted</t>
   </si>
   <si>
     <t>Hashtag</t>
@@ -808,7 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -849,6 +978,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -873,10 +1010,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -885,8 +1023,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1242,28 +1382,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EBBA2B-F5BF-6F4E-BEC5-6C6ABC3153B5}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D30" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J50" sqref="J50"/>
+      <pane ySplit="1" topLeftCell="J30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="124.625" customWidth="1"/>
+    <col min="8" max="9" width="11.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="22.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="101.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1291,1341 +1432,1501 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75"/>
-    <row r="3" spans="1:10" ht="15.75">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
+      <c r="J12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
+      <c r="J14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+      <c r="L20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
+      <c r="J22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
         <v>10</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2">
         <v>10</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2">
         <v>10</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75">
+      <c r="L27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75"/>
-    <row r="31" spans="1:10" ht="15.75">
+      <c r="J29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G32" s="2">
         <v>9</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="J32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
+      <c r="J33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G34" s="2">
         <v>9</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75">
+      <c r="J34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75">
+      <c r="J35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
+      <c r="J36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75">
+      <c r="J37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
+      <c r="J38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
+      <c r="J39" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75">
+      <c r="J40" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
+      <c r="J41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
+      <c r="J43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75">
+      <c r="J44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
+      <c r="J45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75">
+      <c r="J46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G47" s="2">
         <v>5</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75">
+      <c r="J47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G48" s="2">
         <v>5</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75">
+      <c r="J48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75">
+      <c r="J49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="G51" s="2">
+        <v>5</v>
+      </c>
+      <c r="L51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:12">
       <c r="A54" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75">
+        <v>171</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75"/>
-    <row r="60" spans="1:10" ht="15.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75"/>
-    <row r="70" spans="1:3" ht="15.75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75"/>
-    <row r="74" spans="1:3" ht="15.75"/>
-    <row r="75" spans="1:3" ht="15.75"/>
-    <row r="76" spans="1:3" ht="15.75"/>
-    <row r="77" spans="1:3" ht="15.75"/>
-    <row r="78" spans="1:3" ht="15.75"/>
-    <row r="79" spans="1:3" ht="15.75"/>
-    <row r="80" spans="1:3" ht="15.75"/>
-    <row r="81" ht="15.75"/>
-    <row r="82" ht="15.75"/>
-    <row r="83" ht="15.75"/>
-    <row r="84" ht="15.75"/>
-    <row r="85" ht="15.75"/>
-    <row r="86" ht="15.75"/>
-    <row r="87" ht="15.75"/>
-    <row r="88" ht="15.75"/>
-    <row r="89" ht="15.75"/>
-    <row r="93" ht="15.75"/>
-    <row r="94" ht="15.75"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="C75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="C76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="C77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="C78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="C79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="C80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="C82" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="C83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L85" t="s">
+        <v>235</v>
+      </c>
+      <c r="M85" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I80" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2647,7 +2948,7 @@
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2658,133 +2959,133 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C5" s="3">
         <v>43527</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1ab5\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_334a\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5DC5E9-9F9C-4FE9-A739-9748ECCE4AF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDA076F-2AF8-4192-A91F-E60FCDE3E290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" firstSheet="1" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
   <sheets>
     <sheet name="messagesText" sheetId="1" r:id="rId1"/>
-    <sheet name="ideas" sheetId="3" r:id="rId2"/>
+    <sheet name="interactive  questions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="300">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -180,10 +180,7 @@
     <t>tbd</t>
   </si>
   <si>
-    <t>#IAmAlive #HarvardForest #HelloWorld #witnessTree</t>
-  </si>
-  <si>
-    <t>"Hello World! I am a #witnessTree at %s. Follow me to learn more about life as a tree and the environment."</t>
+    <t>Hello World! I am a #witnessTree at %s. Follow me to learn more about life as a tree and the environment.</t>
   </si>
   <si>
     <t>checkNewYears</t>
@@ -198,10 +195,10 @@
     <t>yyyy-01-01 23:59:59</t>
   </si>
   <si>
-    <t>#witnessTree #newyear #newyears #happynewyear #year #wishing #newgoals</t>
-  </si>
-  <si>
-    <t>"Happy #NewYear!! During my life I fixed roughly %s kg of carbon per year. My #resolution for %s is to beat that. What is your resolution?"</t>
+    <t>SensorData</t>
+  </si>
+  <si>
+    <t>Happy #NewYear!! During my life I fixed roughly %s kg of carbon per year. My #resolution for %s is to beat that. What is your resolution?</t>
   </si>
   <si>
     <t>checkNationalWildLifeDay</t>
@@ -216,10 +213,7 @@
     <t>yyyy-03-04 23:59:59</t>
   </si>
   <si>
-    <t>#wildlife #witnessTree</t>
-  </si>
-  <si>
-    <t>"Look who's visited me earlier this year! Happy #NationalWildlifeDay!"</t>
+    <t>Look who's visited me earlier this year! Happy #NationalWildlifeDay!</t>
   </si>
   <si>
     <t>checkPiDay</t>
@@ -234,13 +228,10 @@
     <t>yyyy-03-14 23:59:59</t>
   </si>
   <si>
-    <t>#witnessTree #piday</t>
-  </si>
-  <si>
-    <t>Happy #PiDay! Pi is extra important to those of us shaped like a cylinder. How many digits of Pi can you recite from memory? Tweet below!'</t>
-  </si>
-  <si>
-    <t>'Happy #PiDay! Thanks to Pi I can estimate my trunk diameter (%s cm) or even the area through which sap flows (%s m2).'</t>
+    <t>Happy #PiDay! Pi is extra important to those of us shaped like a cylinder. How many digits of Pi can you recite from memory? Tweet below!</t>
+  </si>
+  <si>
+    <t>Happy #PiDay! Thanks to Pi I can estimate my trunk diameter (%s cm) or even the area through which sap flows (%s m2).</t>
   </si>
   <si>
     <t>checkInternationalDayOfForests</t>
@@ -255,13 +246,10 @@
     <t>yyyy-03-21 23:59:59</t>
   </si>
   <si>
-    <t>#witnesstree</t>
-  </si>
-  <si>
-    <t>"It's the international day of forests! How many types of forests do you know?</t>
-  </si>
-  <si>
-    <t>"Some call us the 'lungs of the Earth' but we are much more than that. Happy international day of forests!"</t>
+    <t>It's the international day of forests! How many types of forests do you know?</t>
+  </si>
+  <si>
+    <t>Some call us the 'lungs of the Earth' but we are much more than that. Happy international day of forests!</t>
   </si>
   <si>
     <t>checkWorldWaterDay</t>
@@ -276,13 +264,13 @@
     <t>yyyy-03-22 23:59:59</t>
   </si>
   <si>
-    <t>#WorldWaterDay #witnessTree</t>
-  </si>
-  <si>
-    <t>"Did you know that roughly %s%% of me is water? Every day lots of water flows through my trunk to my leaves."</t>
-  </si>
-  <si>
-    <t>"Drink up! At night the pores in my leaves close and my trunk swell with water taken-up by my roots. During the day the pore are open and I transpire."</t>
+    <t>Did you know that roughly %s%% of me is water? Every day lots of water flows through my trunk to my leaves.</t>
+  </si>
+  <si>
+    <t>EnviroFact</t>
+  </si>
+  <si>
+    <t>Drink up! At night the pores in my leaves close and my trunk swell with water taken-up by my roots. During the day the pore are open and I transpire.</t>
   </si>
   <si>
     <t>checkBirthday</t>
@@ -291,10 +279,7 @@
     <t>Birthday</t>
   </si>
   <si>
-    <t xml:space="preserve">#witnessTree </t>
-  </si>
-  <si>
-    <t>"Do you know what day it is??? Today is my %s%s #birthday!"</t>
+    <t>Do you know what day it is??? Today is my %s%s #birthday!</t>
   </si>
   <si>
     <t>checkArborDay</t>
@@ -306,7 +291,7 @@
     <t>last Friday in April</t>
   </si>
   <si>
-    <t>"Happy #ArborDay everyone! Did you plant a tree today? Share your comments below."</t>
+    <t>Happy #ArborDay everyone! Did you plant a tree today? Share your comments below.</t>
   </si>
   <si>
     <t>checkEarthDay</t>
@@ -321,10 +306,10 @@
     <t>yyyy-04-22 23:59:59</t>
   </si>
   <si>
-    <t>"Join us as we celebrate #EarthDay! Trees are really important to balancing the amount of carbon dioxide in the air and creating livable conditions for humans."</t>
-  </si>
-  <si>
-    <t>"You don't know how to celebrate #EarthDay? You could plant a tree, or get outside and figure out what species of trees are near your home."</t>
+    <t>Join us as we celebrate #EarthDay! Trees are really important to balancing the amount of carbon dioxide in the air and creating livable conditions for humans.</t>
+  </si>
+  <si>
+    <t>You don't know how to celebrate #EarthDay? You could plant a tree, or get outside and figure out what species of trees are near your home.</t>
   </si>
   <si>
     <t>checkMothersDay</t>
@@ -336,10 +321,7 @@
     <t>second Sunday in May</t>
   </si>
   <si>
-    <t>#witnessTree</t>
-  </si>
-  <si>
-    <t>""</t>
+    <t>Today is Mother's Day! Planet Earth is my mother, she is home to 600 species of oak.  All year long I take in carbon dioxide to produce clean air, in hopes of cooling down my mother. Have you done something for Mother Earth today?</t>
   </si>
   <si>
     <t>checkSpringEquinox</t>
@@ -351,16 +333,13 @@
     <t>solarDates.tsv</t>
   </si>
   <si>
-    <t>#witnessTree #1stDayOfSpring</t>
-  </si>
-  <si>
-    <t>"The first day of spring just started at %s:%sh today! Get ready for bulking season!!"</t>
-  </si>
-  <si>
-    <t>"First day of #spring and it's %s°C here at %s."</t>
-  </si>
-  <si>
-    <t>"Do you already see any oak seedlings, where you live, on this first day of astronomical spring?"</t>
+    <t>The first day of spring just started at %s:%sh today! Get ready for bulking season!!</t>
+  </si>
+  <si>
+    <t>First day of #spring and it's %s°C here at %s.</t>
+  </si>
+  <si>
+    <t>Do you already see any oak seedlings, where you live, on this first day of astronomical spring?</t>
   </si>
   <si>
     <t>checkAutumnEquinox</t>
@@ -369,13 +348,10 @@
     <t>Autumn Equinox</t>
   </si>
   <si>
-    <t>#witnessTree #1stDayOfAutumn #winterIsComing</t>
-  </si>
-  <si>
-    <t>"Astronomically it is the first day of autmn since %s:%sh. I will keep the leaf peepers posted about colour changes at #HarvardForest."</t>
-  </si>
-  <si>
-    <t>"Leaf colours will be changing soon, as astronomically it is the first day of #autmn today."</t>
+    <t>Astronomically it is the first day of autmn since %s:%sh. I will keep the leaf peepers posted about colour changes at #HarvardForest.</t>
+  </si>
+  <si>
+    <t>Leaf colours will be changing soon, as astronomically it is the first day of #autmn today.</t>
   </si>
   <si>
     <t>checkSummerSolstice</t>
@@ -384,13 +360,10 @@
     <t>Summer Solstice</t>
   </si>
   <si>
-    <t>#midsummer #solstice #witnessTree</t>
-  </si>
-  <si>
-    <t>"Soak up that sun and photosynthesis! It's the longest day of the year!"</t>
-  </si>
-  <si>
-    <t>"It is mid-summer and this is the time when wood growth tends to be highest!"</t>
+    <t>Soak up that sun and photosynthesize! It's the longest day of the year!</t>
+  </si>
+  <si>
+    <t>It is mid-summer and this is the time when wood growth tends to be highest!</t>
   </si>
   <si>
     <t>checkWinterSolstice</t>
@@ -399,16 +372,13 @@
     <t>Winter Solstice</t>
   </si>
   <si>
-    <t>#midwinter #solstice #witnessTree</t>
-  </si>
-  <si>
-    <t>"Shortest day of the year! Not too much sunlight today so get as much as you can!"</t>
-  </si>
-  <si>
-    <t>"Happy midwinter! Finally, the days will start getting longer again."</t>
-  </si>
-  <si>
-    <t>"Well it's the shortest day of the year here in Massachusetts, but for trees in the Southern hemisphere today's the longest day."</t>
+    <t>Shortest day of the year! Not too much sunlight today so get as much as you can!</t>
+  </si>
+  <si>
+    <t>Happy midwinter! Finally, the days will start getting longer again.</t>
+  </si>
+  <si>
+    <t>Well it's the shortest day of the year here in Massachusetts, but for trees in the Southern hemisphere today's the longest day.</t>
   </si>
   <si>
     <t>checkHalloween</t>
@@ -423,7 +393,7 @@
     <t>yyyy-10-31 23:59:59</t>
   </si>
   <si>
-    <t>"Happy #Halloween! What's your #costume? Are you going as a tree? Tweet below!"</t>
+    <t>Happy #Halloween! What's your #costume? Are you going as a tree? Tweet below!</t>
   </si>
   <si>
     <t>checkClimate.R</t>
@@ -441,10 +411,7 @@
     <t>yyyy-mm-dd HH:MM:SS</t>
   </si>
   <si>
-    <t>#hot #hottest #HarvardForest #records #sweating</t>
-  </si>
-  <si>
-    <t>"This is the hottest temperature I can remember. It is %s ℃ right now!!! That is %s ℉ by the way."</t>
+    <t>This is the hottest temperature I can remember. It is %s ℃ right now!!! That is %s ℉ by the way.</t>
   </si>
   <si>
     <t>coldest</t>
@@ -453,10 +420,7 @@
     <t>coldest temperature ever recorded</t>
   </si>
   <si>
-    <t>#cold #coldest #HarvardForest #records #freezing</t>
-  </si>
-  <si>
-    <t>"It has never been this cold here! I wish I could just run inside. At %s degree ℃ (%s ℉), I am completely frozen!!!",</t>
+    <t>It has never been this cold here! I wish I could just run inside. At %s degree ℃ (%s ℉), I am completely frozen!!!</t>
   </si>
   <si>
     <t>hottestDay</t>
@@ -468,24 +432,36 @@
     <t>yyyy-mm-dd 23:59:59</t>
   </si>
   <si>
+    <t>This is unbelieveable! This is the hottest day I have ever witnessed, it is %℃ (%s ℉) out here.</t>
+  </si>
+  <si>
     <t>coldestDay</t>
   </si>
   <si>
     <t>coldest day on record</t>
   </si>
   <si>
+    <t>This day has been very cold, the last time I remember being this cold was in % it was %℃ (%s ℉) and now it is %℃ (%s ℉) today! I need a blanket!</t>
+  </si>
+  <si>
     <t>hottestWeek</t>
   </si>
   <si>
     <t>hottest week on record</t>
   </si>
   <si>
+    <t>This week has been tiring due to the heat. The average temperature this week was  %℃ (%s ℉). You humans are lucky, you get to go inside and enjoy the nice cool  air while I'm stuck out here in the hot sun.</t>
+  </si>
+  <si>
     <t>coldestWeek</t>
   </si>
   <si>
     <t>coldest week on record</t>
   </si>
   <si>
+    <t xml:space="preserve">This week was quite cold.  </t>
+  </si>
+  <si>
     <t>hottestMonth</t>
   </si>
   <si>
@@ -519,28 +495,19 @@
     <t>xxxx-mm-01</t>
   </si>
   <si>
-    <t>#HarvardForest #average #completelyAverage</t>
-  </si>
-  <si>
-    <t>"Last month was a pretty average month with %s ℃ it was neither particularly warm, nor cold. And %s mm of prefcipitation is aloo neither wet, nor dry for %s."</t>
+    <t>Last month was a pretty average month with %s ℃ it was neither particularly warm, nor cold. And %s mm of prefcipitation is aloo neither wet, nor dry for %s.</t>
   </si>
   <si>
     <t>monthlyClimateSummary - cold</t>
   </si>
   <si>
-    <t>"#HarvardForest #cold #chilly"</t>
-  </si>
-  <si>
-    <t>"Last month was cold with an average temperature of only %s. Normally, it is about %s warmer in %s."</t>
+    <t>Last month was cold with an average temperature of only %s. Normally, it is about %s warmer in %s.</t>
   </si>
   <si>
     <t>monthlyClimateSummary - warm</t>
   </si>
   <si>
-    <t>"#HarvardForest #globalwarming"</t>
-  </si>
-  <si>
-    <t>"Last month was warmer than usual with an average temperature of %s. In %s, it is on average %s colder in %s."</t>
+    <t>Last month was warmer than usual with an average temperature of %s. In %s, it is on average %s colder in %s.</t>
   </si>
   <si>
     <t>monthlyClimateSummary - wet</t>
@@ -549,13 +516,34 @@
     <t>needs message</t>
   </si>
   <si>
-    <t>#HarvardForest #wet</t>
-  </si>
-  <si>
     <t>monthlyClimateSummary - dry</t>
   </si>
   <si>
-    <t>#HarvardForest #dry</t>
+    <t>annualClimateSummary - normal</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>First of January</t>
+  </si>
+  <si>
+    <t>xxxx-01-01</t>
+  </si>
+  <si>
+    <t>after 31 days</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - cold</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - warm</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - wet</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - dry</t>
   </si>
   <si>
     <t>checkFrost - first</t>
@@ -567,10 +555,7 @@
     <t>after 5 days</t>
   </si>
   <si>
-    <t>#Frost #Shrinkage</t>
-  </si>
-  <si>
-    <t>"Today we had the first frost in %s days. I guess winter is coming."</t>
+    <t>Today we had the first frost in %s days. I guess winter is coming.</t>
   </si>
   <si>
     <t>checkFrost - late</t>
@@ -579,10 +564,7 @@
     <t>Late frost after growing season start</t>
   </si>
   <si>
-    <t>#Frost #HarvardForest</t>
-  </si>
-  <si>
-    <t>"We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful."</t>
+    <t>We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful.</t>
   </si>
   <si>
     <t>checkHeatWave</t>
@@ -597,21 +579,18 @@
     <t>after 2 days</t>
   </si>
   <si>
-    <t>#Heatwave</t>
-  </si>
-  <si>
-    <t>"The last %s days were extremely hot for %s. When is this heatwave going to end?"</t>
+    <t>The last %s days were extremely hot for %s. When is this heatwave going to end?</t>
   </si>
   <si>
     <t>checkDrought</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drought </t>
   </si>
   <si>
+    <t>This drought is stressing me out!...</t>
+  </si>
+  <si>
     <t>checkStorm</t>
   </si>
   <si>
@@ -621,7 +600,7 @@
     <t>daily maximum windspeed above 5m/s</t>
   </si>
   <si>
-    <t>"It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm."</t>
+    <t>It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm.</t>
   </si>
   <si>
     <t>checkMapleSugaringSeason</t>
@@ -639,7 +618,7 @@
     <t>Start of sap flow</t>
   </si>
   <si>
-    <t>"My juices are rising. The sap flow in my stem started picking up in the past week."</t>
+    <t>My juices are rising. The sap flow in my stem started picking up in the past week.</t>
   </si>
   <si>
     <t>checkNearPeakSapFlow</t>
@@ -660,9 +639,15 @@
     <t>Summarise annual season sap flow</t>
   </si>
   <si>
+    <t>relationship to temp (hot/cold), precipitation (drought, heavy rain), seasonal timing and tree function (is sap flow in fall storing carbohydrates instead of using them for energy?)</t>
+  </si>
+  <si>
     <t>checkPhenology.R</t>
   </si>
   <si>
+    <t>growingSeasonSummary</t>
+  </si>
+  <si>
     <t>checkAccelerationOfWoodGrowth</t>
   </si>
   <si>
@@ -723,6 +708,9 @@
     <t>checkCommunity.R</t>
   </si>
   <si>
+    <t>checkSeedDispersal</t>
+  </si>
+  <si>
     <t>Explain seed dispersal</t>
   </si>
   <si>
@@ -732,9 +720,6 @@
     <t>red oak acorn</t>
   </si>
   <si>
-    <t>EnviroFact</t>
-  </si>
-  <si>
     <t>In fall, I drop seeds (acorns) that are food for 100+ types of wildlife. Many of these animals, like squirrels and blue jays, carry my acorns a great distance before storing them underground. They become accidental gardeners of new trees!</t>
   </si>
   <si>
@@ -744,6 +729,9 @@
     <t>All acorns are not created equal. Mine are packed with protein, fat, &amp; calories, making them a high-value food for wildlife - but they are also high in bad-tasting tannins. Acorns of white oak trees, also found in my neighborhood, are a lower-value food but much tastier, so animals snap them up.</t>
   </si>
   <si>
+    <t>checkHerbivory</t>
+  </si>
+  <si>
     <t>Explain herbivory </t>
   </si>
   <si>
@@ -756,13 +744,13 @@
     <t>non-gypsy moth insect eating red oak leaf</t>
   </si>
   <si>
-    <t>SensorData</t>
-  </si>
-  <si>
     <t xml:space="preserve">In &lt;Month&gt;, when sapflow is strongest, insects are busily eating my leaves because they are full of water and sugars. By the end of an average summer, insects will have eaten x% of my leaves. </t>
   </si>
   <si>
-    <t>Explain gypsy moth herbivory </t>
+    <t>checkGypsyMothHerbivory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain gypsy moth herbivory </t>
   </si>
   <si>
     <t>(only if there is a mid-summer change in leaf area index)</t>
@@ -777,9 +765,6 @@
     <t>Insects eating my nutrient-packed leaves is just a part of life for me. In fact, even when an invasive caterpillar like the gypsy moth eats ALL of my leaves in early summer, I usually have enough stored resources to put a whole new set of leaves in late summer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Explain gypsy moth herbivory </t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
@@ -801,15 +786,27 @@
     <t>Gypsy moth egg-sacs each contain &lt;x&gt; eggs, which will hatch into caterpillars in spring. They can be found by the dozen on the bark of mature oak trees like me.</t>
   </si>
   <si>
+    <t>checkMycorrhizalSymbionts</t>
+  </si>
+  <si>
     <t>Explain mycorrhizal symbionts</t>
   </si>
   <si>
+    <t>checkCompetitionTrees</t>
+  </si>
+  <si>
     <t>Explain competition with neighboring trees</t>
   </si>
   <si>
+    <t>checkRelationship</t>
+  </si>
+  <si>
     <t>Explain relationships with shade-loving herb-layer plants (if any)</t>
   </si>
   <si>
+    <t>checkGallWasps</t>
+  </si>
+  <si>
     <t>Explain parasites (gall wasps)</t>
   </si>
   <si>
@@ -819,6 +816,9 @@
     <t xml:space="preserve">Have you ever seen those round shaped balls laying all over the ground? Those may not be seeds but are oak apples. They are caused by a non-harmful gall wasp that lays her eggs on plants. The eggs release plant hormone replicas that cause the tree to create a chamber around eggs. </t>
   </si>
   <si>
+    <t>checkvisitors</t>
+  </si>
+  <si>
     <t>Explain the visitors (animals) that come to the tree</t>
   </si>
   <si>
@@ -834,110 +834,200 @@
     <t>Make sure the figures match with the season when tweeted</t>
   </si>
   <si>
-    <t>Hashtag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priortity </t>
-  </si>
-  <si>
-    <t>Exporation date</t>
-  </si>
-  <si>
-    <t>Figure</t>
-  </si>
-  <si>
-    <t>function ID</t>
-  </si>
-  <si>
-    <t>National Bird Day</t>
-  </si>
-  <si>
-    <t>Jan. 5</t>
-  </si>
-  <si>
-    <t>#NationalBirdDay, #BirdLovers, #NatureLovers</t>
-  </si>
-  <si>
-    <t>Picture of birds around WT</t>
-  </si>
-  <si>
-    <t>Calling all #NatureLovers, #BirdLovers, and #BirdWatchers to celebrate birds! You can celebratre by</t>
-  </si>
-  <si>
-    <t>Squirrel Appreciation Day</t>
-  </si>
-  <si>
-    <t>Jan. 21</t>
-  </si>
-  <si>
-    <t>National Periodic Table Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb.7 </t>
-  </si>
-  <si>
-    <t>#PeriodicTableDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today is #PeriodicTableDay! Did you know that  there are … elements found within me. </t>
-  </si>
-  <si>
-    <t>National I Want You To Be Happy Day</t>
-  </si>
-  <si>
-    <t>#IWantYouToBeHappy</t>
-  </si>
-  <si>
-    <t>National Picnic Day</t>
-  </si>
-  <si>
-    <t>April 23ed</t>
-  </si>
-  <si>
-    <t>#NationalPicnicDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My leaves provide enough shade for a nice picnic outside!  Why don’t you go ouside and enjoy a nice meal outside under the sky. </t>
-  </si>
-  <si>
-    <t>National Indangered Species Day</t>
-  </si>
-  <si>
-    <t>third Friday in May</t>
-  </si>
-  <si>
-    <t>National Roadtrip Day</t>
-  </si>
-  <si>
-    <t>Friday before Memorial Day</t>
-  </si>
-  <si>
-    <t>Come take a roadtrip to Harvard Forest and learn about….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celebration of Life Week </t>
-  </si>
-  <si>
-    <t>First week of Jan.</t>
-  </si>
-  <si>
-    <t>Hunt for Happiness Week</t>
-  </si>
-  <si>
-    <t>Groundwater Awareness Week</t>
-  </si>
-  <si>
-    <t>National Invasive Species Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Wildlife Week </t>
+    <t>checkWildTurkey</t>
+  </si>
+  <si>
+    <t>Explain food diet of wild turkey</t>
+  </si>
+  <si>
+    <t>acorn season</t>
+  </si>
+  <si>
+    <t>My acorns are an important food source for wild turkeys. More than 221 acorns can be consumed by a single turkey in a single meal.</t>
+  </si>
+  <si>
+    <t>checkAcorn</t>
+  </si>
+  <si>
+    <t>Explain acorn</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>My acorns are high in fat and carbohydrate which are very important to black bears. The amount of fall mast crop will determine their reproductive success in the following year.</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Question varaiation</t>
+  </si>
+  <si>
+    <t>Answer 1 from tree</t>
+  </si>
+  <si>
+    <t>Answer 1 from user</t>
+  </si>
+  <si>
+    <t>Enviro.  response logic</t>
+  </si>
+  <si>
+    <t>Enviro. response answer from tree</t>
+  </si>
+  <si>
+    <t>Growth response logic</t>
+  </si>
+  <si>
+    <t>Community response logic</t>
+  </si>
+  <si>
+    <t>How are you</t>
+  </si>
+  <si>
+    <t>How are  you doing?</t>
+  </si>
+  <si>
+    <t>I have a complex life, what do you want to know more about? My environment, how I grow, the community I live in, etc.</t>
+  </si>
+  <si>
+    <t>Your environment</t>
+  </si>
+  <si>
+    <t>temp. in the moment-hot</t>
+  </si>
+  <si>
+    <t>It is %℃ (%s ℉) right now. </t>
+  </si>
+  <si>
+    <t>How r u?</t>
+  </si>
+  <si>
+    <t>Great question,  what would you like to know about? My environment, how I grow, the community I live in, etc.</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>temp. in  the moment-cold</t>
+  </si>
+  <si>
+    <t>How r  u  doing?</t>
+  </si>
+  <si>
+    <t>your environment</t>
+  </si>
+  <si>
+    <t>temp. in  the moment-avg.</t>
+  </si>
+  <si>
+    <t>How do you do?</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>Precip.wet</t>
+  </si>
+  <si>
+    <t>How's it going?</t>
+  </si>
+  <si>
+    <t>Precip.dry</t>
+  </si>
+  <si>
+    <t>how are you doing?</t>
+  </si>
+  <si>
+    <t>Precip.avg.</t>
+  </si>
+  <si>
+    <t>how are you?</t>
+  </si>
+  <si>
+    <t>SeasonalSummer-early</t>
+  </si>
+  <si>
+    <t>how r u?</t>
+  </si>
+  <si>
+    <t>SeasonalSummer-mid</t>
+  </si>
+  <si>
+    <t>how r u doing?</t>
+  </si>
+  <si>
+    <t>SeasonalSummer-late</t>
+  </si>
+  <si>
+    <t>how's it going?</t>
+  </si>
+  <si>
+    <t>SeasonalFall-early</t>
+  </si>
+  <si>
+    <t>how do you do?</t>
+  </si>
+  <si>
+    <t>SeasonalFall-late</t>
+  </si>
+  <si>
+    <t>How are  you</t>
+  </si>
+  <si>
+    <t>SeasonalWinter-early</t>
+  </si>
+  <si>
+    <t>How are  you doing</t>
+  </si>
+  <si>
+    <t>SeasonalWInter-late</t>
+  </si>
+  <si>
+    <t>How r u</t>
+  </si>
+  <si>
+    <t>SeasonalSpring-early</t>
+  </si>
+  <si>
+    <t>How r  u  doing</t>
+  </si>
+  <si>
+    <t>SeasonalSpring-mid</t>
+  </si>
+  <si>
+    <t>How do you do</t>
+  </si>
+  <si>
+    <t>SeasonalSpring-late</t>
+  </si>
+  <si>
+    <t>How's it going</t>
+  </si>
+  <si>
+    <t>how are you doing</t>
+  </si>
+  <si>
+    <t>how are you</t>
+  </si>
+  <si>
+    <t>how r u</t>
+  </si>
+  <si>
+    <t>how r u doing</t>
+  </si>
+  <si>
+    <t>how's it going</t>
+  </si>
+  <si>
+    <t>how do you do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -986,6 +1076,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1014,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1024,6 +1119,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1382,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EBBA2B-F5BF-6F4E-BEC5-6C6ABC3153B5}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:J130"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -1472,230 +1569,215 @@
       <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>51</v>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>51</v>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1706,1224 +1788,1466 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>56</v>
+      <c r="K15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2">
         <v>10</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>71</v>
+      <c r="K17" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>76</v>
+      <c r="K18" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>76</v>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>76</v>
+      <c r="K20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>82</v>
+      <c r="K21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>82</v>
+      <c r="K22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2">
         <v>10</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>87</v>
+      <c r="K23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2">
         <v>10</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>87</v>
+      <c r="K24" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2">
         <v>10</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
         <v>9</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>106</v>
+      <c r="K32" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>110</v>
+      <c r="K33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L33" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2">
         <v>9</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>106</v>
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>110</v>
+      <c r="K35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G36" s="2">
         <v>7</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>106</v>
+      <c r="K36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>110</v>
+      <c r="K37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G38" s="2">
         <v>6</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>106</v>
+      <c r="K38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>110</v>
+      <c r="K39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>106</v>
+      <c r="K40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>110</v>
+      <c r="K41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>132</v>
+      <c r="K42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>135</v>
+      <c r="K43" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>138</v>
+      <c r="K44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>142</v>
+      <c r="K45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>144</v>
+      <c r="K46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G47" s="2">
-        <v>5</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>15</v>
+        <v>137</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G48" s="2">
-        <v>5</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G49" s="2">
-        <v>5</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>5</v>
-      </c>
-      <c r="L51" t="s">
-        <v>166</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="4" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="4" t="s">
-        <v>169</v>
+        <v>148</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>171</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
+      <c r="E57" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" t="s">
-        <v>178</v>
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" t="s">
-        <v>187</v>
+      <c r="C64" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="2" t="s">
-        <v>190</v>
+      <c r="A66" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:12">
+      <c r="A71" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:12">
+      <c r="A72" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B72" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>198</v>
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" s="10">
+        <v>43800</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="C75" s="2" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="K82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" t="s">
         <v>201</v>
       </c>
-      <c r="I75" s="2" t="s">
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L75" t="s">
+      <c r="D83" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="C76" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="I83" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="C77" s="2" t="s">
+      <c r="K83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="2" t="s">
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="L77" t="s">
+      <c r="I84" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="C78" s="2" t="s">
+      <c r="K84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
         <v>213</v>
       </c>
-      <c r="D78" s="2" t="s">
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="K85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s">
         <v>216</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L78" t="s">
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="C79" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="I86" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="K86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" t="s">
         <v>220</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L79" t="s">
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="C80" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E80" s="2" t="s">
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L80" t="s">
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="3:13">
-      <c r="C81" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="3:13">
-      <c r="C82" s="2" t="s">
+    <row r="90" spans="1:13">
+      <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="3:13">
-      <c r="C83" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="84" spans="3:13">
-      <c r="C84" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="L90" t="s">
         <v>230</v>
       </c>
-      <c r="L84" t="s">
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="85" spans="3:13">
-      <c r="C85" s="2" t="s">
+      <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="K91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
         <v>235</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M91" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L92" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L93" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I80" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
+    <hyperlink ref="I86" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -2932,162 +3256,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7053EA-35AE-8445-828D-70C3B0581B91}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <pane xSplit="2" topLeftCell="C2" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="2" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="B3" t="s">
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="B4" t="s">
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43527</v>
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="B5" t="s">
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" t="s">
-        <v>262</v>
-      </c>
-      <c r="I8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" t="s">
+      <c r="E5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" t="s">
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="B6" t="s">
         <v>269</v>
       </c>
-    </row>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75">
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75">
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75">
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75">
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75">
+      <c r="B21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75">
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75">
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75">
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75"/>
+    <row r="26" spans="2:5" ht="15.75"/>
+    <row r="27" spans="2:5" ht="15.75"/>
+    <row r="28" spans="2:5" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_334a\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDA076F-2AF8-4192-A91F-E60FCDE3E290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA04892-41A2-4EB1-AB0D-F29E90578D21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" firstSheet="1" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
   <sheets>
     <sheet name="messagesText" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="301">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -597,7 +597,7 @@
     <t>Heavy storm</t>
   </si>
   <si>
-    <t>daily maximum windspeed above 5m/s</t>
+    <t>daily maximum windspeed of gusts above 15 m/s</t>
   </si>
   <si>
     <t>It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm.</t>
@@ -708,13 +708,16 @@
     <t>checkCommunity.R</t>
   </si>
   <si>
-    <t>checkSeedDispersal</t>
+    <t>explainSeedDispersal</t>
   </si>
   <si>
     <t>Explain seed dispersal</t>
   </si>
   <si>
-    <t>Sept or Oct</t>
+    <t>yyyy-09-01</t>
+  </si>
+  <si>
+    <t>yyyy-12-01</t>
   </si>
   <si>
     <t>red oak acorn</t>
@@ -1482,8 +1485,8 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4:J130"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -2995,17 +2998,20 @@
       <c r="E81" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F81" s="10">
-        <v>43800</v>
+      <c r="F81" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3021,228 +3027,234 @@
       <c r="E82" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="F82" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
       <c r="I82" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3275,216 +3287,216 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="B3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="B5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="B6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="B8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75">
       <c r="B9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="B10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="B11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="B12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="B13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="B14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="B16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75">
       <c r="B17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75">
       <c r="B18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75">
       <c r="B19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75">
       <c r="B20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75">
       <c r="B21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75">
       <c r="B22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75">
       <c r="B23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75">
       <c r="B24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75"/>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2674\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C4B3F0-01FB-4E8A-8DDE-B32DAE1A2268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384AD548-5E92-4306-B02B-A12D697CD35D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" activeTab="1" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="434">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -205,9 +205,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Stage</t>
-  </si>
-  <si>
     <t>helloWorld</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
     <t>xxxx-07-18</t>
   </si>
   <si>
+    <t>WitnessTree_higherRes.jpg</t>
+  </si>
+  <si>
     <t>Witness Tree image</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
     <t>xxxx-09-01</t>
   </si>
   <si>
+    <t>redOakAnatomy.jpg</t>
+  </si>
+  <si>
     <t>microscope image of oak rings showing late wood</t>
   </si>
   <si>
@@ -400,6 +403,9 @@
     <t>xxxx-08-31</t>
   </si>
   <si>
+    <t>oakleaves.jpg</t>
+  </si>
+  <si>
     <t>photo of leaves</t>
   </si>
   <si>
@@ -691,9 +697,6 @@
     <t>Happy #Halloween! What's your #costume? Are you going as a tree? </t>
   </si>
   <si>
-    <t>checkCheckIn</t>
-  </si>
-  <si>
     <t>Regular check-in with the trees peeps</t>
   </si>
   <si>
@@ -703,7 +706,7 @@
     <t>after 7 days</t>
   </si>
   <si>
-    <t>If you want to find out how I can actually talk to you, to go %s to find out more. And feel free to ask me how I am doing anytime.</t>
+    <t>Ask how I'm doing, and I'll answer! Just type "@WitnessTree How are you?" If you want to find out how I can actually talk to you, to go %s to find out more.</t>
   </si>
   <si>
     <t>checkClimate.R</t>
@@ -1061,6 +1064,30 @@
   </si>
   <si>
     <t>checkCommunity.R</t>
+  </si>
+  <si>
+    <t>xxxx-06-21</t>
+  </si>
+  <si>
+    <t>xxxx-09-21</t>
+  </si>
+  <si>
+    <t>xxxx-09-22</t>
+  </si>
+  <si>
+    <t>xxxx-11-21</t>
+  </si>
+  <si>
+    <t>xxxx-11-22</t>
+  </si>
+  <si>
+    <t>xxxx-03-21</t>
+  </si>
+  <si>
+    <t>xxxx-03-22</t>
+  </si>
+  <si>
+    <t>xxxx-06-22</t>
   </si>
   <si>
     <t>explainSeedDispersal</t>
@@ -1952,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BF53E-7CDE-4246-86A4-9BE54D73559D}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1972,7 +1999,7 @@
     <col min="13" max="13" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:14" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2015,33 +2042,32 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2069,7 +2095,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2094,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="13" customFormat="1">
+    <row r="5" spans="1:14" s="13" customFormat="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2108,7 +2134,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -2137,7 +2163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -2166,7 +2192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2195,7 +2221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="D10" s="8"/>
@@ -2237,7 +2263,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -2267,7 +2293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2319,7 +2345,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -2344,7 +2370,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2397,9 +2423,11 @@
         <v>53</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2407,12 +2435,12 @@
         <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -2425,9 +2453,11 @@
         <v>53</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2435,92 +2465,104 @@
         <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s">
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
         <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
         <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
         <v>34</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -2529,21 +2571,24 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s">
         <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2555,18 +2600,18 @@
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L28" t="s">
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2581,24 +2626,24 @@
         <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -2607,76 +2652,76 @@
         <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
         <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
         <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s">
         <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2687,11 +2732,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EBBA2B-F5BF-6F4E-BEC5-6C6ABC3153B5}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O3"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
@@ -2754,42 +2799,45 @@
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O4">
         <f>LEN(M4)</f>
@@ -2798,19 +2846,19 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
@@ -2819,7 +2867,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O68" si="0">LEN(M5)</f>
@@ -2828,28 +2876,28 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -2858,28 +2906,28 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
@@ -2888,19 +2936,19 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
@@ -2909,7 +2957,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -2918,28 +2966,28 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
@@ -2948,28 +2996,28 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
@@ -2978,31 +3026,31 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
@@ -3011,31 +3059,31 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -3044,25 +3092,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -3071,25 +3119,25 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
@@ -3098,19 +3146,19 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
@@ -3119,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
@@ -3128,28 +3176,28 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2">
         <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
@@ -3158,31 +3206,31 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
@@ -3191,19 +3239,19 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
@@ -3212,7 +3260,7 @@
         <v>35</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
@@ -3221,19 +3269,19 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
@@ -3242,7 +3290,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -3251,31 +3299,31 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
@@ -3284,19 +3332,19 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
@@ -3305,7 +3353,7 @@
         <v>35</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
@@ -3314,19 +3362,19 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
@@ -3335,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
@@ -3344,19 +3392,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="2">
         <v>10</v>
@@ -3365,7 +3413,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
@@ -3374,19 +3422,19 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G24" s="2">
         <v>10</v>
@@ -3395,7 +3443,7 @@
         <v>35</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
@@ -3404,25 +3452,25 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G25" s="2">
         <v>10</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
@@ -3431,25 +3479,25 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
@@ -3458,25 +3506,25 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
@@ -3485,25 +3533,25 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
@@ -3512,19 +3560,19 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
@@ -3536,40 +3584,40 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
-        <v>180</v>
+      <c r="M30" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f>LEN(M30)</f>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="O31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>LEN(M30)</f>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
@@ -3578,19 +3626,19 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
@@ -3599,7 +3647,7 @@
         <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
@@ -3608,19 +3656,19 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G34" s="2">
         <v>9</v>
@@ -3629,7 +3677,7 @@
         <v>34</v>
       </c>
       <c r="M34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
@@ -3638,19 +3686,19 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
@@ -3659,7 +3707,7 @@
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
@@ -3668,19 +3716,19 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G36" s="2">
         <v>9</v>
@@ -3689,7 +3737,7 @@
         <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O36">
         <f t="shared" si="0"/>
@@ -3698,16 +3746,16 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
@@ -3716,7 +3764,7 @@
         <v>34</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
@@ -3725,16 +3773,16 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G38" s="2">
         <v>7</v>
@@ -3743,7 +3791,7 @@
         <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
@@ -3752,16 +3800,16 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
@@ -3770,7 +3818,7 @@
         <v>34</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O39">
         <f t="shared" si="0"/>
@@ -3779,16 +3827,16 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
@@ -3797,7 +3845,7 @@
         <v>34</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
@@ -3806,16 +3854,16 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
@@ -3824,7 +3872,7 @@
         <v>34</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -3833,16 +3881,16 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
@@ -3851,7 +3899,7 @@
         <v>34</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
@@ -3860,19 +3908,19 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
@@ -3881,7 +3929,7 @@
         <v>34</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
@@ -3890,19 +3938,19 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -3911,7 +3959,7 @@
         <v>34</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
@@ -3920,19 +3968,19 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
@@ -3941,7 +3989,7 @@
         <v>34</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O45">
         <f t="shared" si="0"/>
@@ -3950,19 +3998,19 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
@@ -3971,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O46">
         <f t="shared" si="0"/>
@@ -3980,19 +4028,19 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
@@ -4001,7 +4049,7 @@
         <v>34</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
@@ -4010,19 +4058,19 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -4031,7 +4079,7 @@
         <v>34</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
@@ -4040,19 +4088,19 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -4061,7 +4109,7 @@
         <v>34</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
@@ -4070,19 +4118,19 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -4091,7 +4139,7 @@
         <v>34</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O50">
         <f t="shared" si="0"/>
@@ -4100,19 +4148,19 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -4121,7 +4169,7 @@
         <v>34</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
@@ -4130,19 +4178,19 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -4151,7 +4199,7 @@
         <v>34</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O52">
         <f t="shared" si="0"/>
@@ -4160,19 +4208,19 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -4181,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
@@ -4190,19 +4238,19 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G54" s="2">
         <v>5</v>
@@ -4211,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
@@ -4220,19 +4268,19 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
@@ -4241,7 +4289,7 @@
         <v>35</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
@@ -4250,19 +4298,19 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
@@ -4271,22 +4319,22 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -4295,7 +4343,7 @@
         <v>34</v>
       </c>
       <c r="M57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O57">
         <f t="shared" si="0"/>
@@ -4304,16 +4352,16 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>40</v>
@@ -4328,7 +4376,7 @@
         <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
@@ -4337,16 +4385,16 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O59">
         <f t="shared" si="0"/>
@@ -4362,7 +4410,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O61">
         <f t="shared" si="0"/>
@@ -4371,22 +4419,22 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
@@ -4395,22 +4443,22 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O63">
         <f t="shared" si="0"/>
@@ -4419,13 +4467,13 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>35</v>
@@ -4437,13 +4485,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>35</v>
@@ -4455,27 +4503,27 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -4487,25 +4535,25 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -4517,25 +4565,25 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -4547,14 +4595,14 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C69"/>
       <c r="D69" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>30</v>
@@ -4571,7 +4619,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="O69">
-        <f t="shared" ref="O69:O109" si="1">LEN(M69)</f>
+        <f t="shared" ref="O69:O113" si="1">LEN(M69)</f>
         <v>0</v>
       </c>
     </row>
@@ -4584,7 +4632,7 @@
       </c>
       <c r="C70"/>
       <c r="D70" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>30</v>
@@ -4614,7 +4662,7 @@
       </c>
       <c r="C71"/>
       <c r="D71" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>30</v>
@@ -4644,7 +4692,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="C73" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O73">
         <f t="shared" si="1"/>
@@ -4653,7 +4701,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O74">
         <f t="shared" si="1"/>
@@ -4662,10 +4710,10 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M75" s="1"/>
       <c r="O75">
@@ -4675,16 +4723,16 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O76">
         <f t="shared" si="1"/>
@@ -4693,16 +4741,16 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O77">
         <f t="shared" si="1"/>
@@ -4711,16 +4759,16 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>284</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" t="s">
-        <v>283</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="O78">
         <f t="shared" si="1"/>
@@ -4729,25 +4777,25 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O79">
         <f t="shared" si="1"/>
@@ -4756,23 +4804,23 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C80"/>
       <c r="D80" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O80">
         <f t="shared" si="1"/>
@@ -4781,23 +4829,23 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O81">
         <f t="shared" si="1"/>
@@ -4881,13 +4929,13 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O85">
         <f t="shared" si="1"/>
@@ -4896,13 +4944,13 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O86">
         <f t="shared" si="1"/>
@@ -4911,13 +4959,13 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O87">
         <f t="shared" si="1"/>
@@ -4926,13 +4974,13 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O88">
         <f t="shared" si="1"/>
@@ -4947,7 +4995,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O90">
         <f t="shared" si="1"/>
@@ -4959,7 +5007,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>34</v>
@@ -4974,7 +5022,7 @@
         <v>25</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>35</v>
@@ -4989,7 +5037,7 @@
         <v>25</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O93">
         <f t="shared" si="1"/>
@@ -5004,7 +5052,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O95">
         <f t="shared" si="1"/>
@@ -5012,261 +5060,314 @@
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" t="s">
         <v>301</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" t="s">
         <v>302</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" t="s">
+        <v>62</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" t="s">
         <v>303</v>
       </c>
-      <c r="G96" s="2">
+      <c r="F97" t="s">
+        <v>304</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" t="s">
+        <v>305</v>
+      </c>
+      <c r="F98" t="s">
+        <v>306</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98" t="s">
+        <v>72</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98" t="s">
+        <v>34</v>
+      </c>
+      <c r="M98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" t="s">
+        <v>308</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="s">
+        <v>72</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99" t="s">
+        <v>34</v>
+      </c>
+      <c r="M99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G100" s="2">
         <v>1</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="I100" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M96" t="s">
-        <v>305</v>
-      </c>
-      <c r="O96">
+      <c r="M100" t="s">
+        <v>314</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G97" s="2">
+    <row r="101" spans="1:15">
+      <c r="A101" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G101" s="2">
         <v>1</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="I101" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M97" t="s">
-        <v>307</v>
-      </c>
-      <c r="O97">
+      <c r="M101" t="s">
+        <v>316</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="K98" s="2" t="s">
+    <row r="102" spans="1:15">
+      <c r="A102" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M98" t="s">
-        <v>313</v>
-      </c>
-      <c r="O98">
+      <c r="M102" t="s">
+        <v>322</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K99" s="2" t="s">
+    <row r="103" spans="1:15">
+      <c r="A103" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M99" t="s">
-        <v>319</v>
-      </c>
-      <c r="O99">
+      <c r="M103" t="s">
+        <v>328</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K100" s="2" t="s">
+    <row r="104" spans="1:15">
+      <c r="A104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M100" t="s">
-        <v>322</v>
-      </c>
-      <c r="O100">
+      <c r="M104" t="s">
+        <v>331</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="2" t="s">
+    <row r="105" spans="1:15">
+      <c r="A105" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M101" t="s">
-        <v>326</v>
-      </c>
-      <c r="O101">
+      <c r="M105" t="s">
+        <v>335</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O102">
+    <row r="106" spans="1:15">
+      <c r="A106" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M106" t="s">
-        <v>337</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="1"/>
-        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5274,88 +5375,151 @@
         <v>338</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M107" t="s">
-        <v>342</v>
-      </c>
-      <c r="N107" t="s">
-        <v>343</v>
-      </c>
       <c r="O107">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M108" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O108">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M109" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="O109">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M110" t="s">
+        <v>346</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="1"/>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" t="s">
+        <v>351</v>
+      </c>
+      <c r="N111" t="s">
+        <v>352</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>354</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M112" t="s">
+        <v>357</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M113" t="s">
+        <v>362</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5364,19 +5528,19 @@
       <formula>280</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O109">
+  <conditionalFormatting sqref="O4:O113">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>260</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O109">
+  <conditionalFormatting sqref="O4:O113">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>260</formula>
       <formula>280</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I101" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
+    <hyperlink ref="I105" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -5406,263 +5570,263 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="B3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="B4" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E4" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="B5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="B6" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="B7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="B8" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="B9" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F9" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="B10" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="B11" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="B12" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="B13" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="B14" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E14" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="B15" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="B16" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75">
       <c r="B17" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75">
       <c r="B18" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75">
       <c r="B19" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75">
       <c r="B20" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75">
       <c r="B21" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75">
       <c r="B22" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75">
       <c r="B23" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75">
       <c r="B24" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75">
       <c r="E25" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75"/>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2674\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_b48\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384AD548-5E92-4306-B02B-A12D697CD35D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48278C7E-9F6E-4271-B4DF-AD2F5877F7B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" activeTab="1" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
@@ -238,16 +238,16 @@
     <t>monthlyEngagementReminder</t>
   </si>
   <si>
+    <t>post on the third week of every month</t>
+  </si>
+  <si>
+    <t>Ask how I'm doing, and I'll answer! Just type "@WitnessTree How are you?"</t>
+  </si>
+  <si>
+    <t>monthlySapFlowSummary - avg</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>post on the third week of every month</t>
-  </si>
-  <si>
-    <t>Ask how I'm doing, and I'll answer! Just type "@WitnessTree How are you?"</t>
-  </si>
-  <si>
-    <t>monthlySapFlowSummary - avg</t>
   </si>
   <si>
     <t>to post in week 2 of each month; this function when sap flow is similar to previous month</t>
@@ -1469,7 +1469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1530,6 +1530,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1558,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1573,6 +1578,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1981,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BF53E-7CDE-4246-86A4-9BE54D73559D}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD24"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2100,11 +2106,11 @@
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2117,7 +2123,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="13" customFormat="1">
@@ -2136,10 +2142,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>29</v>
@@ -2165,10 +2171,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>29</v>
@@ -2197,7 +2203,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>37</v>
@@ -2226,7 +2232,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
@@ -2268,7 +2274,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>39</v>
@@ -2298,7 +2304,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>39</v>
@@ -2325,7 +2331,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>46</v>
@@ -2350,7 +2356,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -2375,7 +2381,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -2413,7 +2419,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -2443,7 +2449,7 @@
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -2473,7 +2479,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -2496,7 +2502,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
@@ -2519,7 +2525,7 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -2542,7 +2548,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
@@ -2565,7 +2571,7 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
@@ -2591,7 +2597,7 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -2614,7 +2620,7 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
@@ -2634,7 +2640,7 @@
         <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
@@ -2660,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
@@ -2683,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -2706,7 +2712,7 @@
         <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
@@ -2735,7 +2741,7 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
@@ -3601,7 +3607,7 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="14" t="s">
         <v>181</v>
       </c>
       <c r="O30">
@@ -4301,7 +4307,7 @@
         <v>243</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>244</v>
@@ -4355,7 +4361,7 @@
         <v>246</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>247</v>
@@ -4388,7 +4394,7 @@
         <v>252</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>253</v>
@@ -4422,7 +4428,7 @@
         <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>256</v>
@@ -4446,7 +4452,7 @@
         <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>256</v>
@@ -4470,7 +4476,7 @@
         <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>261</v>
@@ -4488,7 +4494,7 @@
         <v>260</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>261</v>
@@ -4506,7 +4512,7 @@
         <v>262</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>263</v>
@@ -4538,7 +4544,7 @@
         <v>267</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="8" t="s">
@@ -4568,7 +4574,7 @@
         <v>268</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C68"/>
       <c r="D68" s="8" t="s">
@@ -4598,7 +4604,7 @@
         <v>269</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C69"/>
       <c r="D69" s="8" t="s">
@@ -4625,10 +4631,10 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C70"/>
       <c r="D70" s="8" t="s">
@@ -4658,7 +4664,7 @@
         <v>36</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C71"/>
       <c r="D71" s="8" t="s">
@@ -4726,7 +4732,7 @@
         <v>277</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>278</v>
@@ -4744,7 +4750,7 @@
         <v>280</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>281</v>
@@ -4762,7 +4768,7 @@
         <v>283</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>284</v>
@@ -4780,7 +4786,7 @@
         <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>263</v>
@@ -4807,7 +4813,7 @@
         <v>287</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C80"/>
       <c r="D80" s="2" t="s">
@@ -4832,7 +4838,7 @@
         <v>288</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="2" t="s">
@@ -4857,7 +4863,7 @@
         <v>45</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C82"/>
       <c r="D82" s="2" t="s">
@@ -4882,7 +4888,7 @@
         <v>47</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C83"/>
       <c r="D83" s="2" t="s">
@@ -4907,7 +4913,7 @@
         <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C84"/>
       <c r="D84" s="2" t="s">
@@ -4932,7 +4938,7 @@
         <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>290</v>
@@ -4947,7 +4953,7 @@
         <v>291</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
         <v>292</v>
@@ -4962,7 +4968,7 @@
         <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>294</v>
@@ -4977,7 +4983,7 @@
         <v>295</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
         <v>296</v>
@@ -5004,7 +5010,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>298</v>
@@ -5019,7 +5025,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>298</v>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>299</v>
@@ -5064,7 +5070,7 @@
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -5074,7 +5080,9 @@
       <c r="F96" t="s">
         <v>302</v>
       </c>
-      <c r="G96"/>
+      <c r="G96">
+        <v>2</v>
+      </c>
       <c r="H96"/>
       <c r="I96" t="s">
         <v>62</v>
@@ -5093,7 +5101,7 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -5103,7 +5111,9 @@
       <c r="F97" t="s">
         <v>304</v>
       </c>
-      <c r="G97"/>
+      <c r="G97">
+        <v>2</v>
+      </c>
       <c r="H97"/>
       <c r="I97" t="s">
         <v>67</v>
@@ -5122,7 +5132,7 @@
         <v>69</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -5132,7 +5142,9 @@
       <c r="F98" t="s">
         <v>306</v>
       </c>
-      <c r="G98"/>
+      <c r="G98">
+        <v>2</v>
+      </c>
       <c r="H98"/>
       <c r="I98" t="s">
         <v>72</v>
@@ -5151,7 +5163,7 @@
         <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -5161,7 +5173,9 @@
       <c r="F99" t="s">
         <v>308</v>
       </c>
-      <c r="G99"/>
+      <c r="G99">
+        <v>2</v>
+      </c>
       <c r="H99"/>
       <c r="I99" t="s">
         <v>72</v>
@@ -5246,7 +5260,7 @@
         <v>317</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>318</v>
@@ -5276,7 +5290,7 @@
         <v>323</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>324</v>
@@ -5306,7 +5320,7 @@
         <v>323</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>324</v>
@@ -5333,7 +5347,7 @@
         <v>323</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>332</v>
@@ -5414,7 +5428,7 @@
         <v>343</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>344</v>
@@ -5438,7 +5452,7 @@
         <v>347</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>348</v>
@@ -5468,7 +5482,7 @@
         <v>353</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>354</v>
@@ -5495,7 +5509,7 @@
         <v>358</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>359</v>
@@ -5552,7 +5566,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E7" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_b48\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48278C7E-9F6E-4271-B4DF-AD2F5877F7B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3209C60C-FE44-4890-91C3-EF725A27BE89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" activeTab="1" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="438">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -298,736 +298,748 @@
     <t>Every day, I release oxygen and gallons of water through pores in my leaves. It's just like breathing: you, too, release water vapor when you exhale.</t>
   </si>
   <si>
+    <t>monthlyRadGrowthSummary - slow</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this function when growth is slow compared to previous month</t>
+  </si>
+  <si>
+    <t>monthlyRadGrowthSummary - avg</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this post is for growth that is the same as previous month</t>
+  </si>
+  <si>
+    <t>monthlyRadGrowthSummary - fast</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this post for growth that is fast compared to previous month</t>
+  </si>
+  <si>
+    <t>checkWoodGrowth - summer</t>
+  </si>
+  <si>
+    <t>xxxx-07-15</t>
+  </si>
+  <si>
+    <t>xxxx-09-01</t>
+  </si>
+  <si>
+    <t>redOakAnatomy.jpg</t>
+  </si>
+  <si>
+    <t>microscope image of oak rings showing late wood</t>
+  </si>
+  <si>
+    <t>This year, I've grown % cm (% inches) so far. Around late July, my growth begins to slow. My "late wood" rings look darker, and contain more carbon, than "early wood."</t>
+  </si>
+  <si>
+    <t>checkWoodGrowth - summer</t>
+  </si>
+  <si>
+    <t>In early summer, I grow rapidly. If you could see inside my bark, you'd find very large wood cells. Around late July, my growth begins to slow. My "late wood" rings look darker, and contain more carbon.</t>
+  </si>
+  <si>
+    <t>checkCommunityWildlife - summer</t>
+  </si>
+  <si>
+    <t>xxxx-06-01</t>
+  </si>
+  <si>
+    <t>xxxx-09-15</t>
+  </si>
+  <si>
+    <t>wildlife camera image - summer</t>
+  </si>
+  <si>
+    <t>Can you tell who's visited me this month? In summer, I provide shade and food for many animals.</t>
+  </si>
+  <si>
+    <t>checkCommunityWildlife - fall</t>
+  </si>
+  <si>
+    <t>xxxx-09-16</t>
+  </si>
+  <si>
+    <t>xxxx-11-15</t>
+  </si>
+  <si>
+    <t>wildlife camera image - fall</t>
+  </si>
+  <si>
+    <t>Can you tell who's visited me? In the fall, I provide important food for many animals preparing for winter.</t>
+  </si>
+  <si>
+    <t>checkCommunityWildlife - winter</t>
+  </si>
+  <si>
+    <t>xxxx-11-16</t>
+  </si>
+  <si>
+    <t>xxxx-03-15</t>
+  </si>
+  <si>
+    <t>wildlife camera image</t>
+  </si>
+  <si>
+    <t>Can you tell who's visited me? In the winter, I provide food and shelter for many animals.</t>
+  </si>
+  <si>
+    <t>checkCommunityWildlife - spring</t>
+  </si>
+  <si>
+    <t>xxxx-03-16</t>
+  </si>
+  <si>
+    <t>xxxx-05-30</t>
+  </si>
+  <si>
+    <t>Can you tell who's visited me? In spring, I provide food and habitat for many animals.</t>
+  </si>
+  <si>
+    <t>checkLeafPhysiology</t>
+  </si>
+  <si>
+    <t>xxxx-08-31</t>
+  </si>
+  <si>
+    <t>oakleaves.jpg</t>
+  </si>
+  <si>
+    <t>photo of leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By mid-July, my leaves have matured and developed a waxy cuticle on their outer surface. This coating - like a jacket you might put on! - helps me reduce water loss, protects my cells from damage,  and insulates me against heat. </t>
+  </si>
+  <si>
+    <t>checkRainfall</t>
+  </si>
+  <si>
+    <t>Graph of dendrometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This rain is making my bark swell. My bark has swollen an extra %cm since yesterday! When the sun comes back out, my bark will slowly shrink back to its normal size. </t>
+  </si>
+  <si>
+    <t>When it rains, I store extra water in my roots and bark. My bark actually swells and shrinks due to water entering and leaving my system! We are all affected by the rain; how does the rain affect you?</t>
+  </si>
+  <si>
+    <t>checkLidarPhysiology</t>
+  </si>
+  <si>
+    <t>post any time</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>I'm just an average oak tree, but boy do I take up space! My total surface area (not including my roots) is 437 square meters -- about 1.25 times as big as an IMAX screen! Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
+  </si>
+  <si>
+    <t>Wow, my branches are really going places! Added together, they stretch over 1.6 miles (2.6 km) in length! That's a LOT of nice, cool shade. Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
+  </si>
+  <si>
+    <t>My trunk is about half the volume of a concrete mixer truck, and most of that area is stored carbon, which offsets CO2 emissions in the atmosphere. Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie.</t>
+  </si>
+  <si>
+    <t>Scientists usually talk about my growth in terms of trunk diameter, but I also grow taller every year. Right now I'm 26 meters (87+ feet) tall - that's more than 8 stories high! Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
+  </si>
+  <si>
+    <t>ContentTheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers </t>
+  </si>
+  <si>
+    <t>checkEvents.R</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Witness Tree</t>
+  </si>
+  <si>
+    <t>Hello World! I am a more than 100-year-old red oak tree at %s in %s: one of the oldest living organisms on the internet! Follow me to learn more about my life in a changing environment. If you want to know more about how I work, to go: %s.</t>
+  </si>
+  <si>
+    <t>checkNewYears</t>
+  </si>
+  <si>
+    <t>New Years</t>
+  </si>
+  <si>
+    <t>yyyy-01-01</t>
+  </si>
+  <si>
+    <t>yyyy-01-01 23:59:59</t>
+  </si>
+  <si>
+    <t>Happy #NewYear!! During my life I've stored roughly %s kg (%x lbs) of carbon per year. My #resolution for %s is to beat that. What is your resolution?</t>
+  </si>
+  <si>
+    <t>checkNationalWildLifeDay</t>
+  </si>
+  <si>
+    <t>National Wildlife Day</t>
+  </si>
+  <si>
+    <t>yyyy-03-04</t>
+  </si>
+  <si>
+    <t>yyyy-03-04 23:59:59</t>
+  </si>
+  <si>
+    <t>Photos from wildlife camera</t>
+  </si>
+  <si>
+    <t>Look who's visited me earlier this year! Happy #NationalWildlifeDay!</t>
+  </si>
+  <si>
+    <t>checkPiDay</t>
+  </si>
+  <si>
+    <t>Pi Day</t>
+  </si>
+  <si>
+    <t>yyyy-03-14</t>
+  </si>
+  <si>
+    <t>yyyy-03-14 23:59:59</t>
+  </si>
+  <si>
+    <t>3D model of the Witness Tree</t>
+  </si>
+  <si>
+    <t>Happy #PiDay! Pi is extra important to those of us shaped like a cylinder. How many digits of Pi can you recite from memory? Tweet below!</t>
+  </si>
+  <si>
+    <t>Happy #PiDay! Thanks to Pi I can estimate my trunk diameter (%s cm) or even the area through which sap flows (%s m2).</t>
+  </si>
+  <si>
+    <t>checkInternationalDayOfForests</t>
+  </si>
+  <si>
+    <t>International Day of Forests</t>
+  </si>
+  <si>
+    <t>yyyy-03-21</t>
+  </si>
+  <si>
+    <t>yyyy-03-21 23:59:59</t>
+  </si>
+  <si>
+    <t>Drone photo of Harvard Forest</t>
+  </si>
+  <si>
+    <t>It's the international day of forests! How many types of forests do you know?</t>
+  </si>
+  <si>
+    <t>Timelapse of the changing  forest</t>
+  </si>
+  <si>
+    <t>Some call us the 'lungs of the Earth' but we are much more than that. Happy international day of forests!</t>
+  </si>
+  <si>
+    <t>checkWorldWaterDay</t>
+  </si>
+  <si>
+    <t>World Water Day</t>
+  </si>
+  <si>
+    <t>yyyy-03-22</t>
+  </si>
+  <si>
+    <t>yyyy-03-22 23:59:59</t>
+  </si>
+  <si>
+    <t>Diagram of transpiration</t>
+  </si>
+  <si>
+    <t>Did you know that roughly %s%% of me is water? Every day lots of water flows through my trunk to my leaves.</t>
+  </si>
+  <si>
+    <t>Video of  transpiration</t>
+  </si>
+  <si>
+    <t>Drink up! At night the pores in my leaves close and my trunk swell with water taken-up by my roots. During the day the pore are open and I transpire.</t>
+  </si>
+  <si>
+    <t>checkBirthday</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Do you know what day it is??? Today is my %s%s #birthday!</t>
+  </si>
+  <si>
+    <t>checkArborDay</t>
+  </si>
+  <si>
+    <t>Arbor Day</t>
+  </si>
+  <si>
+    <t>last Friday in April</t>
+  </si>
+  <si>
+    <t>Happy #ArborDay, everyone! Did you plant a tree today? Share your comments below.</t>
+  </si>
+  <si>
+    <t>checkEarthDay</t>
+  </si>
+  <si>
+    <t>Earth Day</t>
+  </si>
+  <si>
+    <t>yyyy-04-22</t>
+  </si>
+  <si>
+    <t>yyyy-04-22 23:59:59</t>
+  </si>
+  <si>
+    <t>Join us as we celebrate #EarthDay! Trees are really important to balancing the amount of carbon dioxide in the air and creating livable conditions for humans.</t>
+  </si>
+  <si>
+    <t>Photo of earth with a big oak tree on it</t>
+  </si>
+  <si>
+    <t>You don't know how to celebrate #EarthDay? You could plant a tree, or get outside and figure out what species of trees are near your home.</t>
+  </si>
+  <si>
+    <t>checkMothersDay</t>
+  </si>
+  <si>
+    <t>Mother's Day</t>
+  </si>
+  <si>
+    <t>second Sunday in May</t>
+  </si>
+  <si>
+    <t>Oak species around the world</t>
+  </si>
+  <si>
+    <t>Today is Mother's Day! Planet Earth is my mother, she is home to 600 species of oak.  All year long I take in carbon dioxide to produce clean air, in hopes of cooling down my mother. Have you done something for Mother Earth today?</t>
+  </si>
+  <si>
+    <t>checkSpringEquinox</t>
+  </si>
+  <si>
+    <t>Spring Equinox</t>
+  </si>
+  <si>
+    <t>solarDates.tsv</t>
+  </si>
+  <si>
+    <t>The first day of spring just started at %s:%sh today! Get ready for bulking season!!</t>
+  </si>
+  <si>
+    <t>First day of #spring and it's %s°C here at %s.</t>
+  </si>
+  <si>
+    <t>Oak  seedlings</t>
+  </si>
+  <si>
+    <t>Do you already see any oak seedlings, where you live, on this first day of astronomical spring?</t>
+  </si>
+  <si>
+    <t>checkAutumnEquinox</t>
+  </si>
+  <si>
+    <t>Autumn Equinox</t>
+  </si>
+  <si>
+    <t>Astronomically it is the first day of autmn since %s:%sh. I will keep the leaf peepers posted about colour changes at #HarvardForest.</t>
+  </si>
+  <si>
+    <t>Leaf colours will be changing soon, as astronomically it is the first day of #autmn today.</t>
+  </si>
+  <si>
+    <t>checkSummerSolstice</t>
+  </si>
+  <si>
+    <t>Summer Solstice</t>
+  </si>
+  <si>
+    <t>Soak up that sun and photosynthesize! It's the longest day of the year!</t>
+  </si>
+  <si>
+    <t>It is mid-summer and this is the time when wood growth tends to be highest!</t>
+  </si>
+  <si>
+    <t>checkWinterSolstice</t>
+  </si>
+  <si>
+    <t>Winter Solstice</t>
+  </si>
+  <si>
+    <t>Shortest day of the year! Not too much sunlight today so get as much as you can!</t>
+  </si>
+  <si>
+    <t>Happy midwinter! Finally, the days will start getting longer again.</t>
+  </si>
+  <si>
+    <t>It's the shortest day of the year here in Massachusetts, but for trees in the Southern hemisphere, today's the longest day. Grow on!</t>
+  </si>
+  <si>
+    <t>checkHalloween</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>yyyy-10-31</t>
+  </si>
+  <si>
+    <t>yyyy-10-31 23:59:59</t>
+  </si>
+  <si>
+    <t>Happy #Halloween! What's your #costume? Are you going as a tree? </t>
+  </si>
+  <si>
+    <t>Regular check-in with the trees peeps</t>
+  </si>
+  <si>
+    <t>third week of the month</t>
+  </si>
+  <si>
+    <t>after 7 days</t>
+  </si>
+  <si>
+    <t>Ask how I'm doing, and I'll answer! Just type "@WitnessTree How are you?" If you want to find out how I can actually talk to you, to go %s to find out more.</t>
+  </si>
+  <si>
+    <t>checkClimate.R</t>
+  </si>
+  <si>
+    <t>hottest</t>
+  </si>
+  <si>
+    <t>hottest temperature ever recorded</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd HH:MM:SS</t>
+  </si>
+  <si>
+    <t>This is the hottest temperature I can remember. It is %s ℃ right now!!! That is %s ℉ by the way.</t>
+  </si>
+  <si>
+    <t>coldest</t>
+  </si>
+  <si>
+    <t>coldest temperature ever recorded</t>
+  </si>
+  <si>
+    <t>It has never been this cold here! I wish I could just run inside. At %s degree ℃ (%s ℉), I am completely frozen!!!</t>
+  </si>
+  <si>
+    <t>hottestDay</t>
+  </si>
+  <si>
+    <t>hottest day on record</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd 23:59:59</t>
+  </si>
+  <si>
+    <t>This is unbelieveable! This is the hottest day I have ever witnessed. It is %℃ (%s ℉) out here. If this heat continues, I'll consider dropping some leaves so I can save some water.</t>
+  </si>
+  <si>
+    <t>coldestDay</t>
+  </si>
+  <si>
+    <t>coldest day on record</t>
+  </si>
+  <si>
+    <t>This day has been very cold, the last time I remember being this cold was in % it was %℃ (%s ℉) and now it is %℃ (%s ℉) today! I need a blanket!</t>
+  </si>
+  <si>
+    <t>hottestWeek</t>
+  </si>
+  <si>
+    <t>hottest week on record</t>
+  </si>
+  <si>
+    <t>This week has been tiring due to the heat. The average temperature this week was  %℃ (%s ℉). You humans are lucky, you get to go inside and enjoy the nice cool  air while I'm stuck out here in the hot sun.</t>
+  </si>
+  <si>
+    <t>coldestWeek</t>
+  </si>
+  <si>
+    <t>coldest week on record</t>
+  </si>
+  <si>
+    <t>This week was very cold. It was the coldest week on record! The average temperature this week was  %℃ (%s ℉). </t>
+  </si>
+  <si>
+    <t>hottestMonth</t>
+  </si>
+  <si>
+    <t>hottest month on record</t>
+  </si>
+  <si>
+    <t>NEED MESSAGE</t>
+  </si>
+  <si>
+    <t>coldestMonth</t>
+  </si>
+  <si>
+    <t>coldest month on record</t>
+  </si>
+  <si>
+    <t>hottestYear</t>
+  </si>
+  <si>
+    <t>hottest year on record</t>
+  </si>
+  <si>
+    <t>coldestYear</t>
+  </si>
+  <si>
+    <t>coldest year on record</t>
+  </si>
+  <si>
+    <t>monthlyClimateSummary - normal</t>
+  </si>
+  <si>
+    <t>First of the month</t>
+  </si>
+  <si>
+    <t>xxxx-mm-01</t>
+  </si>
+  <si>
+    <t>Last month was a pretty average month with %s ℃ it was neither particularly warm, nor cold. And %s mm of precipitation is also neither wet, nor dry for %s.</t>
+  </si>
+  <si>
+    <t>monthlyClimateSummary - cold</t>
+  </si>
+  <si>
+    <t>Last month was cold with an average temperature of only %s. Normally, it is about %s warmer in %s.</t>
+  </si>
+  <si>
+    <t>monthlyClimateSummary - warm</t>
+  </si>
+  <si>
+    <t>Last month was warmer than usual with an average temperature of %s. In %s, it is on average %s colder in %s.</t>
+  </si>
+  <si>
+    <t>monthlyClimateSummary - wet</t>
+  </si>
+  <si>
+    <t>Last month was pretty wet. As of mm-dd at HH:mm, Petersham, MA collected a total of %" of rain for the month. That rain fell over % of the % days in the month.</t>
+  </si>
+  <si>
+    <t>monthlyClimateSummary - dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last month was dry with temperatures reaching  ℃ (%s ℉) and %s mm of precipitation. </t>
+  </si>
+  <si>
+    <t>annualClimateSummary - normal</t>
+  </si>
+  <si>
+    <t>First of January</t>
+  </si>
+  <si>
+    <t>xxxx-01-01</t>
+  </si>
+  <si>
+    <t>after 25 days</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - cold</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - warm</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - wet</t>
+  </si>
+  <si>
+    <t>annualClimateSummary - dry</t>
+  </si>
+  <si>
+    <t>checkFrost - first</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First frost in autumn</t>
+  </si>
+  <si>
+    <t>after 5 days</t>
+  </si>
+  <si>
+    <t>Today we had the first frost in %s days. I guess winter is coming.</t>
+  </si>
+  <si>
+    <t>checkFrost - late</t>
+  </si>
+  <si>
+    <t>Late frost after growing season start</t>
+  </si>
+  <si>
+    <t>We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful.</t>
+  </si>
+  <si>
+    <t>checkHeatWave</t>
+  </si>
+  <si>
+    <t>two or more consecutive days with daily maximum temperature in the 90th percentile for the month. Maybe I should compare this to a base line longer ago.</t>
+  </si>
+  <si>
+    <t>after 2 days</t>
+  </si>
+  <si>
+    <t>The last %s days were extremely hot for %s. When is this heatwave going to end?</t>
+  </si>
+  <si>
+    <t>checkDrought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought </t>
+  </si>
+  <si>
+    <t>Oh no! There is drought happening! Less moisture in the soil means less water to convert into glucose (through photosynthsis). This means less energy for my friends and I.  </t>
+  </si>
+  <si>
+    <t>checkStorm</t>
+  </si>
+  <si>
+    <t>Heavy storm</t>
+  </si>
+  <si>
+    <t>daily maximum windspeed of gusts above 15 m/s</t>
+  </si>
+  <si>
+    <t>It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm.</t>
+  </si>
+  <si>
+    <t>daily rainfall exceeding 3 inches</t>
+  </si>
+  <si>
+    <t>The rainfall over the past 24 hours has exceeded %cm (%inches). Over the next few days, my neighbors and I will drink hundreds of gallons of that water, helping to prevent floods.</t>
+  </si>
+  <si>
+    <t>checkMapleSugaringSeason</t>
+  </si>
+  <si>
+    <t>Freezing nights with thawing days</t>
+  </si>
+  <si>
+    <t>checkPhysiology.R</t>
+  </si>
+  <si>
+    <t>Fourth week of the month</t>
+  </si>
+  <si>
+    <t>checkStartOfSapFlow</t>
+  </si>
+  <si>
+    <t>Start of sap flow</t>
+  </si>
+  <si>
+    <t>picture of sap flow sensor</t>
+  </si>
+  <si>
+    <t>The sap flow in my stem started picking up in the past week, which means I'm revving up to produce leaves. This sap flow sensor helps you watch my progress in real-time. &lt;web-link to Witness Tree sap flow sensor description &amp; graph&gt;</t>
+  </si>
+  <si>
+    <t>The growing season has begun! My sap is flowing at a rate of % - a slow beginning, but how many of you jump right out of bed in the morning? As I wake up and begin really mobilizing water and nutrients to make leaves, my sap flow will increase.</t>
+  </si>
+  <si>
+    <t>checkEndOfSapFlow</t>
+  </si>
+  <si>
+    <t>End of sap flow</t>
+  </si>
+  <si>
+    <t>annualSapFlowSummary - slow</t>
+  </si>
+  <si>
+    <t>Summarise annual wood growth in a slow-growing year</t>
+  </si>
+  <si>
+    <t>the annual posts will come twice per year - once on Nov. 1 and repeated on Jan. 1</t>
+  </si>
+  <si>
+    <t>xxxx-11-01</t>
+  </si>
+  <si>
+    <t>graph of current year sap flow to date</t>
+  </si>
+  <si>
+    <t>annualSapFlowSummary - avg</t>
+  </si>
+  <si>
+    <t>annualSapFlowSummary - fast</t>
+  </si>
+  <si>
+    <t>monthlySapFlowSummary - slow</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this function when sap flow is slow compared to previous month</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this function when sap flow is similar to previous month</t>
+  </si>
+  <si>
+    <t>to post at the end of each month; this post for sap flow that is fast compared to previous month</t>
+  </si>
+  <si>
+    <t>relationship to temp (hot/cold), precipitation (drought, heavy rain), seasonal timing and tree function (is sap flow in fall storing carbohydrates instead of using them for energy?)</t>
+  </si>
+  <si>
+    <t>checkPhenology.R</t>
+  </si>
+  <si>
+    <t>growingSeasonSummary</t>
+  </si>
+  <si>
+    <t>needs message</t>
+  </si>
+  <si>
+    <t>checkAccelerationOfWoodGrowth</t>
+  </si>
+  <si>
+    <t>Start of wood growth</t>
+  </si>
+  <si>
+    <t>picture of dendrometer</t>
+  </si>
+  <si>
+    <t>checkNearPeakWoodGrowth</t>
+  </si>
+  <si>
+    <t>Peak of  wood growth</t>
+  </si>
+  <si>
+    <t>graph of current year growing season growth</t>
+  </si>
+  <si>
+    <t>checkSlowDownOfWoodGrowth</t>
+  </si>
+  <si>
+    <t>End of wood growth</t>
+  </si>
+  <si>
+    <t>annualWoodGrowthSummary - slow</t>
+  </si>
+  <si>
+    <t>the annualWoodGrowthSummary posts will come twice per year - once on Nov. 1 and repeated on Jan. 1</t>
+  </si>
+  <si>
+    <t>annualWoodGrowthSummary - avg</t>
+  </si>
+  <si>
+    <t>annualWoodGrowthSummary - fast</t>
+  </si>
+  <si>
     <t>monthlyWoodGrowthSummary - slow</t>
   </si>
   <si>
-    <t>to post at the end of each month; this function when growth is slow compared to previous month</t>
-  </si>
-  <si>
     <t>monthlyWoodGrowthSummary - avg</t>
   </si>
   <si>
-    <t>to post at the end of each month; this post is for growth that is the same as previous month</t>
-  </si>
-  <si>
     <t>monthlyWoodGrowthSummary - fast</t>
-  </si>
-  <si>
-    <t>to post at the end of each month; this post for growth that is fast compared to previous month</t>
-  </si>
-  <si>
-    <t>checkWoodGrowth - summer</t>
-  </si>
-  <si>
-    <t>xxxx-07-15</t>
-  </si>
-  <si>
-    <t>xxxx-09-01</t>
-  </si>
-  <si>
-    <t>redOakAnatomy.jpg</t>
-  </si>
-  <si>
-    <t>microscope image of oak rings showing late wood</t>
-  </si>
-  <si>
-    <t>This year, I've grown % cm (% inches) so far. Around late July, my growth begins to slow. My "late wood" rings look darker, and contain more carbon, than "early wood."</t>
-  </si>
-  <si>
-    <t>checkWoodGrowth - summer</t>
-  </si>
-  <si>
-    <t>In early summer, I grow rapidly. If you could see inside my bark, you'd find very large wood cells. Around late July, my growth begins to slow. My "late wood" rings look darker, and contain more carbon.</t>
-  </si>
-  <si>
-    <t>checkCommunityWildlife - summer</t>
-  </si>
-  <si>
-    <t>xxxx-06-01</t>
-  </si>
-  <si>
-    <t>xxxx-09-15</t>
-  </si>
-  <si>
-    <t>wildlife camera image - summer</t>
-  </si>
-  <si>
-    <t>Can you tell who's visited me this month? In summer, I provide shade and food for many animals.</t>
-  </si>
-  <si>
-    <t>checkCommunityWildlife - fall</t>
-  </si>
-  <si>
-    <t>xxxx-09-16</t>
-  </si>
-  <si>
-    <t>xxxx-11-15</t>
-  </si>
-  <si>
-    <t>wildlife camera image - fall</t>
-  </si>
-  <si>
-    <t>Can you tell who's visited me? In the fall, I provide important food for many animals preparing for winter.</t>
-  </si>
-  <si>
-    <t>checkCommunityWildlife - winter</t>
-  </si>
-  <si>
-    <t>xxxx-11-16</t>
-  </si>
-  <si>
-    <t>xxxx-03-15</t>
-  </si>
-  <si>
-    <t>wildlife camera image</t>
-  </si>
-  <si>
-    <t>Can you tell who's visited me? In the winter, I provide food and shelter for many animals.</t>
-  </si>
-  <si>
-    <t>checkCommunityWildlife - spring</t>
-  </si>
-  <si>
-    <t>xxxx-03-16</t>
-  </si>
-  <si>
-    <t>xxxx-05-30</t>
-  </si>
-  <si>
-    <t>Can you tell who's visited me? In spring, I provide food and habitat for many animals.</t>
-  </si>
-  <si>
-    <t>checkLeafPhysiology</t>
-  </si>
-  <si>
-    <t>xxxx-08-31</t>
-  </si>
-  <si>
-    <t>oakleaves.jpg</t>
-  </si>
-  <si>
-    <t>photo of leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By mid-July, my leaves have matured and developed a waxy cuticle on their outer surface. This coating - like a jacket you might put on! - helps me reduce water loss, protects my cells from damage,  and insulates me against heat. </t>
-  </si>
-  <si>
-    <t>checkRainfall</t>
-  </si>
-  <si>
-    <t>Graph of dendrometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This rain is making my bark swell. My bark has swollen an extra %cm since yesterday! When the sun comes back out, my bark will slowly shrink back to its normal size. </t>
-  </si>
-  <si>
-    <t>When it rains, I store extra water in my roots and bark. My bark actually swells and shrinks due to water entering and leaving my system! We are all affected by the rain; how does the rain affect you?</t>
-  </si>
-  <si>
-    <t>checkLidarPhysiology</t>
-  </si>
-  <si>
-    <t>post any time</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>I'm just an average oak tree, but boy do I take up space! My total surface area (not including my roots) is 437 square meters -- about 1.25 times as big as an IMAX screen! Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
-  </si>
-  <si>
-    <t>Wow, my branches are really going places! Added together, they stretch over 1.6 miles (2.6 km) in length! That's a LOT of nice, cool shade. Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
-  </si>
-  <si>
-    <t>My trunk is about half the volume of a concrete mixer truck, and most of that area is stored carbon, which offsets CO2 emissions in the atmosphere. Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie.</t>
-  </si>
-  <si>
-    <t>Scientists usually talk about my growth in terms of trunk diameter, but I also grow taller every year. Right now I'm 26 meters (87+ feet) tall - that's more than 8 stories high! Thanks to the Schaaf Lab at @EnvSchool for the cool LIDAR selfie that computed these stats.</t>
-  </si>
-  <si>
-    <t>ContentTheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers </t>
-  </si>
-  <si>
-    <t>checkEvents.R</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>Witness Tree</t>
-  </si>
-  <si>
-    <t>Hello World! I am a more than 100-year-old red oak tree at %s in %s: one of the oldest living organisms on the internet! Follow me to learn more about my life in a changing environment. If you want to know more about how I work, to go: %s.</t>
-  </si>
-  <si>
-    <t>checkNewYears</t>
-  </si>
-  <si>
-    <t>New Years</t>
-  </si>
-  <si>
-    <t>yyyy-01-01</t>
-  </si>
-  <si>
-    <t>yyyy-01-01 23:59:59</t>
-  </si>
-  <si>
-    <t>Happy #NewYear!! During my life I've stored roughly %s kg (%x lbs) of carbon per year. My #resolution for %s is to beat that. What is your resolution?</t>
-  </si>
-  <si>
-    <t>checkNationalWildLifeDay</t>
-  </si>
-  <si>
-    <t>National Wildlife Day</t>
-  </si>
-  <si>
-    <t>yyyy-03-04</t>
-  </si>
-  <si>
-    <t>yyyy-03-04 23:59:59</t>
-  </si>
-  <si>
-    <t>Photos from wildlife camera</t>
-  </si>
-  <si>
-    <t>Look who's visited me earlier this year! Happy #NationalWildlifeDay!</t>
-  </si>
-  <si>
-    <t>checkPiDay</t>
-  </si>
-  <si>
-    <t>Pi Day</t>
-  </si>
-  <si>
-    <t>yyyy-03-14</t>
-  </si>
-  <si>
-    <t>yyyy-03-14 23:59:59</t>
-  </si>
-  <si>
-    <t>3D model of the Witness Tree</t>
-  </si>
-  <si>
-    <t>Happy #PiDay! Pi is extra important to those of us shaped like a cylinder. How many digits of Pi can you recite from memory? Tweet below!</t>
-  </si>
-  <si>
-    <t>Happy #PiDay! Thanks to Pi I can estimate my trunk diameter (%s cm) or even the area through which sap flows (%s m2).</t>
-  </si>
-  <si>
-    <t>checkInternationalDayOfForests</t>
-  </si>
-  <si>
-    <t>International Day of Forests</t>
-  </si>
-  <si>
-    <t>yyyy-03-21</t>
-  </si>
-  <si>
-    <t>yyyy-03-21 23:59:59</t>
-  </si>
-  <si>
-    <t>Drone photo of Harvard Forest</t>
-  </si>
-  <si>
-    <t>It's the international day of forests! How many types of forests do you know?</t>
-  </si>
-  <si>
-    <t>Timelapse of the changing  forest</t>
-  </si>
-  <si>
-    <t>Some call us the 'lungs of the Earth' but we are much more than that. Happy international day of forests!</t>
-  </si>
-  <si>
-    <t>checkWorldWaterDay</t>
-  </si>
-  <si>
-    <t>World Water Day</t>
-  </si>
-  <si>
-    <t>yyyy-03-22</t>
-  </si>
-  <si>
-    <t>yyyy-03-22 23:59:59</t>
-  </si>
-  <si>
-    <t>Diagram of transpiration</t>
-  </si>
-  <si>
-    <t>Did you know that roughly %s%% of me is water? Every day lots of water flows through my trunk to my leaves.</t>
-  </si>
-  <si>
-    <t>Video of  transpiration</t>
-  </si>
-  <si>
-    <t>Drink up! At night the pores in my leaves close and my trunk swell with water taken-up by my roots. During the day the pore are open and I transpire.</t>
-  </si>
-  <si>
-    <t>checkBirthday</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Do you know what day it is??? Today is my %s%s #birthday!</t>
-  </si>
-  <si>
-    <t>checkArborDay</t>
-  </si>
-  <si>
-    <t>Arbor Day</t>
-  </si>
-  <si>
-    <t>last Friday in April</t>
-  </si>
-  <si>
-    <t>Happy #ArborDay, everyone! Did you plant a tree today? Share your comments below.</t>
-  </si>
-  <si>
-    <t>checkEarthDay</t>
-  </si>
-  <si>
-    <t>Earth Day</t>
-  </si>
-  <si>
-    <t>yyyy-04-22</t>
-  </si>
-  <si>
-    <t>yyyy-04-22 23:59:59</t>
-  </si>
-  <si>
-    <t>Join us as we celebrate #EarthDay! Trees are really important to balancing the amount of carbon dioxide in the air and creating livable conditions for humans.</t>
-  </si>
-  <si>
-    <t>Photo of earth with a big oak tree on it</t>
-  </si>
-  <si>
-    <t>You don't know how to celebrate #EarthDay? You could plant a tree, or get outside and figure out what species of trees are near your home.</t>
-  </si>
-  <si>
-    <t>checkMothersDay</t>
-  </si>
-  <si>
-    <t>Mother's Day</t>
-  </si>
-  <si>
-    <t>second Sunday in May</t>
-  </si>
-  <si>
-    <t>Oak species around the world</t>
-  </si>
-  <si>
-    <t>Today is Mother's Day! Planet Earth is my mother, she is home to 600 species of oak.  All year long I take in carbon dioxide to produce clean air, in hopes of cooling down my mother. Have you done something for Mother Earth today?</t>
-  </si>
-  <si>
-    <t>checkSpringEquinox</t>
-  </si>
-  <si>
-    <t>Spring Equinox</t>
-  </si>
-  <si>
-    <t>solarDates.tsv</t>
-  </si>
-  <si>
-    <t>The first day of spring just started at %s:%sh today! Get ready for bulking season!!</t>
-  </si>
-  <si>
-    <t>First day of #spring and it's %s°C here at %s.</t>
-  </si>
-  <si>
-    <t>Oak  seedlings</t>
-  </si>
-  <si>
-    <t>Do you already see any oak seedlings, where you live, on this first day of astronomical spring?</t>
-  </si>
-  <si>
-    <t>checkAutumnEquinox</t>
-  </si>
-  <si>
-    <t>Autumn Equinox</t>
-  </si>
-  <si>
-    <t>Astronomically it is the first day of autmn since %s:%sh. I will keep the leaf peepers posted about colour changes at #HarvardForest.</t>
-  </si>
-  <si>
-    <t>Leaf colours will be changing soon, as astronomically it is the first day of #autmn today.</t>
-  </si>
-  <si>
-    <t>checkSummerSolstice</t>
-  </si>
-  <si>
-    <t>Summer Solstice</t>
-  </si>
-  <si>
-    <t>Soak up that sun and photosynthesize! It's the longest day of the year!</t>
-  </si>
-  <si>
-    <t>It is mid-summer and this is the time when wood growth tends to be highest!</t>
-  </si>
-  <si>
-    <t>checkWinterSolstice</t>
-  </si>
-  <si>
-    <t>Winter Solstice</t>
-  </si>
-  <si>
-    <t>Shortest day of the year! Not too much sunlight today so get as much as you can!</t>
-  </si>
-  <si>
-    <t>Happy midwinter! Finally, the days will start getting longer again.</t>
-  </si>
-  <si>
-    <t>It's the shortest day of the year here in Massachusetts, but for trees in the Southern hemisphere, today's the longest day. Grow on!</t>
-  </si>
-  <si>
-    <t>checkHalloween</t>
-  </si>
-  <si>
-    <t>Halloween</t>
-  </si>
-  <si>
-    <t>yyyy-10-31</t>
-  </si>
-  <si>
-    <t>yyyy-10-31 23:59:59</t>
-  </si>
-  <si>
-    <t>Happy #Halloween! What's your #costume? Are you going as a tree? </t>
-  </si>
-  <si>
-    <t>Regular check-in with the trees peeps</t>
-  </si>
-  <si>
-    <t>third week of the month</t>
-  </si>
-  <si>
-    <t>after 7 days</t>
-  </si>
-  <si>
-    <t>Ask how I'm doing, and I'll answer! Just type "@WitnessTree How are you?" If you want to find out how I can actually talk to you, to go %s to find out more.</t>
-  </si>
-  <si>
-    <t>checkClimate.R</t>
-  </si>
-  <si>
-    <t>hottest</t>
-  </si>
-  <si>
-    <t>hottest temperature ever recorded</t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd HH:MM:SS</t>
-  </si>
-  <si>
-    <t>This is the hottest temperature I can remember. It is %s ℃ right now!!! That is %s ℉ by the way.</t>
-  </si>
-  <si>
-    <t>coldest</t>
-  </si>
-  <si>
-    <t>coldest temperature ever recorded</t>
-  </si>
-  <si>
-    <t>It has never been this cold here! I wish I could just run inside. At %s degree ℃ (%s ℉), I am completely frozen!!!</t>
-  </si>
-  <si>
-    <t>hottestDay</t>
-  </si>
-  <si>
-    <t>hottest day on record</t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd 23:59:59</t>
-  </si>
-  <si>
-    <t>This is unbelieveable! This is the hottest day I have ever witnessed. It is %℃ (%s ℉) out here. If this heat continues, I'll consider dropping some leaves so I can save some water.</t>
-  </si>
-  <si>
-    <t>coldestDay</t>
-  </si>
-  <si>
-    <t>coldest day on record</t>
-  </si>
-  <si>
-    <t>This day has been very cold, the last time I remember being this cold was in % it was %℃ (%s ℉) and now it is %℃ (%s ℉) today! I need a blanket!</t>
-  </si>
-  <si>
-    <t>hottestWeek</t>
-  </si>
-  <si>
-    <t>hottest week on record</t>
-  </si>
-  <si>
-    <t>This week has been tiring due to the heat. The average temperature this week was  %℃ (%s ℉). You humans are lucky, you get to go inside and enjoy the nice cool  air while I'm stuck out here in the hot sun.</t>
-  </si>
-  <si>
-    <t>coldestWeek</t>
-  </si>
-  <si>
-    <t>coldest week on record</t>
-  </si>
-  <si>
-    <t>This week was very cold. It was the coldest week on record! The average temperature this week was  %℃ (%s ℉). </t>
-  </si>
-  <si>
-    <t>hottestMonth</t>
-  </si>
-  <si>
-    <t>hottest month on record</t>
-  </si>
-  <si>
-    <t>NEED MESSAGE</t>
-  </si>
-  <si>
-    <t>coldestMonth</t>
-  </si>
-  <si>
-    <t>coldest month on record</t>
-  </si>
-  <si>
-    <t>hottestYear</t>
-  </si>
-  <si>
-    <t>hottest year on record</t>
-  </si>
-  <si>
-    <t>coldestYear</t>
-  </si>
-  <si>
-    <t>coldest year on record</t>
-  </si>
-  <si>
-    <t>monthlyClimateSummary - normal</t>
-  </si>
-  <si>
-    <t>First of the month</t>
-  </si>
-  <si>
-    <t>xxxx-mm-01</t>
-  </si>
-  <si>
-    <t>Last month was a pretty average month with %s ℃ it was neither particularly warm, nor cold. And %s mm of precipitation is also neither wet, nor dry for %s.</t>
-  </si>
-  <si>
-    <t>monthlyClimateSummary - cold</t>
-  </si>
-  <si>
-    <t>Last month was cold with an average temperature of only %s. Normally, it is about %s warmer in %s.</t>
-  </si>
-  <si>
-    <t>monthlyClimateSummary - warm</t>
-  </si>
-  <si>
-    <t>Last month was warmer than usual with an average temperature of %s. In %s, it is on average %s colder in %s.</t>
-  </si>
-  <si>
-    <t>monthlyClimateSummary - wet</t>
-  </si>
-  <si>
-    <t>Last month was pretty wet. As of mm-dd at HH:mm, Petersham, MA collected a total of %" of rain for the month. That rain fell over % of the % days in the month.</t>
-  </si>
-  <si>
-    <t>monthlyClimateSummary - dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last month was dry with temperatures reaching  ℃ (%s ℉) and %s mm of precipitation. </t>
-  </si>
-  <si>
-    <t>annualClimateSummary - normal</t>
-  </si>
-  <si>
-    <t>First of January</t>
-  </si>
-  <si>
-    <t>xxxx-01-01</t>
-  </si>
-  <si>
-    <t>after 25 days</t>
-  </si>
-  <si>
-    <t>annualClimateSummary - cold</t>
-  </si>
-  <si>
-    <t>annualClimateSummary - warm</t>
-  </si>
-  <si>
-    <t>annualClimateSummary - wet</t>
-  </si>
-  <si>
-    <t>annualClimateSummary - dry</t>
-  </si>
-  <si>
-    <t>checkFrost - first</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> First frost in autumn</t>
-  </si>
-  <si>
-    <t>after 5 days</t>
-  </si>
-  <si>
-    <t>Today we had the first frost in %s days. I guess winter is coming.</t>
-  </si>
-  <si>
-    <t>checkFrost - late</t>
-  </si>
-  <si>
-    <t>Late frost after growing season start</t>
-  </si>
-  <si>
-    <t>We had %s frost free days, and I was about to really get going for the year, but then we just had a frost day. This is painful.</t>
-  </si>
-  <si>
-    <t>checkHeatWave</t>
-  </si>
-  <si>
-    <t>two or more consecutive days with daily maximum temperature in the 90th percentile for the month. Maybe I should compare this to a base line longer ago.</t>
-  </si>
-  <si>
-    <t>after 2 days</t>
-  </si>
-  <si>
-    <t>The last %s days were extremely hot for %s. When is this heatwave going to end?</t>
-  </si>
-  <si>
-    <t>checkDrought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought </t>
-  </si>
-  <si>
-    <t>Oh no! There is drought happening! Less moisture in the soil means less water to convert into glucose (through photosynthsis). This means less energy for my friends and I.  </t>
-  </si>
-  <si>
-    <t>checkStorm</t>
-  </si>
-  <si>
-    <t>Heavy storm</t>
-  </si>
-  <si>
-    <t>daily maximum windspeed of gusts above 15 m/s</t>
-  </si>
-  <si>
-    <t>It was windy recently with maximum wind speeds exceeding %s meter per second or %s mph here at %s, but I will weather the storm.</t>
-  </si>
-  <si>
-    <t>daily rainfall exceeding 3 inches</t>
-  </si>
-  <si>
-    <t>The rainfall over the past 24 hours has exceeded %cm (%inches). Over the next few days, my neighbors and I will drink hundreds of gallons of that water, helping to prevent floods.</t>
-  </si>
-  <si>
-    <t>checkMapleSugaringSeason</t>
-  </si>
-  <si>
-    <t>Freezing nights with thawing days</t>
-  </si>
-  <si>
-    <t>checkPhysiology.R</t>
-  </si>
-  <si>
-    <t>checkStartOfSapFlow</t>
-  </si>
-  <si>
-    <t>Start of sap flow</t>
-  </si>
-  <si>
-    <t>picture of sap flow sensor</t>
-  </si>
-  <si>
-    <t>The sap flow in my stem started picking up in the past week, which means I'm revving up to produce leaves. This sap flow sensor helps you watch my progress in real-time. &lt;web-link to Witness Tree sap flow sensor description &amp; graph&gt;</t>
-  </si>
-  <si>
-    <t>The growing season has begun! My sap is flowing at a rate of % - a slow beginning, but how many of you jump right out of bed in the morning? As I wake up and begin really mobilizing water and nutrients to make leaves, my sap flow will increase.</t>
-  </si>
-  <si>
-    <t>checkEndOfSapFlow</t>
-  </si>
-  <si>
-    <t>End of sap flow</t>
-  </si>
-  <si>
-    <t>annualSapFlowSummary - slow</t>
-  </si>
-  <si>
-    <t>Summarise annual wood growth in a slow-growing year</t>
-  </si>
-  <si>
-    <t>the annual posts will come twice per year - once on Nov. 1 and repeated on Jan. 1</t>
-  </si>
-  <si>
-    <t>xxxx-11-01</t>
-  </si>
-  <si>
-    <t>graph of current year sap flow to date</t>
-  </si>
-  <si>
-    <t>annualSapFlowSummary - avg</t>
-  </si>
-  <si>
-    <t>annualSapFlowSummary - fast</t>
-  </si>
-  <si>
-    <t>monthlySapFlowSummary - slow</t>
-  </si>
-  <si>
-    <t>to post at the end of each month; this function when sap flow is slow compared to previous month</t>
-  </si>
-  <si>
-    <t>to post at the end of each month; this function when sap flow is similar to previous month</t>
-  </si>
-  <si>
-    <t>to post at the end of each month; this post for sap flow that is fast compared to previous month</t>
-  </si>
-  <si>
-    <t>relationship to temp (hot/cold), precipitation (drought, heavy rain), seasonal timing and tree function (is sap flow in fall storing carbohydrates instead of using them for energy?)</t>
-  </si>
-  <si>
-    <t>checkPhenology.R</t>
-  </si>
-  <si>
-    <t>growingSeasonSummary</t>
-  </si>
-  <si>
-    <t>needs message</t>
-  </si>
-  <si>
-    <t>checkAccelerationOfWoodGrowth</t>
-  </si>
-  <si>
-    <t>Start of wood growth</t>
-  </si>
-  <si>
-    <t>picture of dendrometer</t>
-  </si>
-  <si>
-    <t>checkNearPeakWoodGrowth</t>
-  </si>
-  <si>
-    <t>Peak of  wood growth</t>
-  </si>
-  <si>
-    <t>graph of current year growing season growth</t>
-  </si>
-  <si>
-    <t>checkSlowDownOfWoodGrowth</t>
-  </si>
-  <si>
-    <t>End of wood growth</t>
-  </si>
-  <si>
-    <t>annualWoodGrowthSummary - slow</t>
-  </si>
-  <si>
-    <t>the annualWoodGrowthSummary posts will come twice per year - once on Nov. 1 and repeated on Jan. 1</t>
-  </si>
-  <si>
-    <t>annualWoodGrowthSummary - avg</t>
-  </si>
-  <si>
-    <t>annualWoodGrowthSummary - fast</t>
   </si>
   <si>
     <t>checkLeafUnfolding</t>
@@ -1987,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BF53E-7CDE-4246-86A4-9BE54D73559D}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2738,11 +2750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EBBA2B-F5BF-6F4E-BEC5-6C6ABC3153B5}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -2876,7 +2888,7 @@
         <v>104</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O68" si="0">LEN(M5)</f>
+        <f t="shared" ref="O5:O71" si="0">LEN(M5)</f>
         <v>150</v>
       </c>
     </row>
@@ -4425,175 +4437,152 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C62" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="0"/>
-        <v>232</v>
+      <c r="C62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C63" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M63" t="s">
-        <v>259</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="0"/>
-        <v>244</v>
+      <c r="C63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C64" t="s">
-        <v>261</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M65" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O65">
         <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" t="s">
+        <v>260</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>262</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="8" t="s">
+    <row r="68" spans="1:15">
+      <c r="A68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>263</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="O66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="O67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68"/>
-      <c r="D68" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="K68" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O68">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4601,144 +4590,196 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C69"/>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="O69">
-        <f t="shared" ref="O69:O113" si="1">LEN(M69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C70"/>
       <c r="D70" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="O70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C71"/>
       <c r="D71" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="O71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
+      <c r="A72" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C72"/>
+      <c r="D72" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
       <c r="O72">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O72:O116" si="1">LEN(M72)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="C73" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="A73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="A74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M75" s="1"/>
+      <c r="C75"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" t="s">
-        <v>278</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>279</v>
+      <c r="C76" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="O76">
         <f t="shared" si="1"/>
@@ -4747,16 +4788,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" t="s">
-        <v>281</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O77">
         <f t="shared" si="1"/>
@@ -4764,18 +4796,13 @@
       </c>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="2" t="s">
-        <v>283</v>
+      <c r="A78" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M78" s="1"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4783,25 +4810,16 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O79">
         <f t="shared" si="1"/>
@@ -4810,23 +4828,16 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C80"/>
-      <c r="D80" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>226</v>
+      <c r="C80" t="s">
+        <v>282</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O80">
         <f t="shared" si="1"/>
@@ -4835,23 +4846,16 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C81"/>
-      <c r="D81" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>226</v>
+      <c r="C81" t="s">
+        <v>285</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O81">
         <f t="shared" si="1"/>
@@ -4860,23 +4864,25 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C82"/>
+      <c r="C82" t="s">
+        <v>264</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="O82">
         <f t="shared" si="1"/>
@@ -4885,23 +4891,23 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C83"/>
       <c r="D83" s="2" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="O83">
         <f t="shared" si="1"/>
@@ -4910,23 +4916,23 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C84"/>
       <c r="D84" s="2" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="O84">
         <f t="shared" si="1"/>
@@ -4935,13 +4941,23 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C85" t="s">
-        <v>290</v>
+      <c r="C85"/>
+      <c r="D85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="O85">
         <f t="shared" si="1"/>
@@ -4955,8 +4971,18 @@
       <c r="B86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
+      <c r="C86"/>
+      <c r="D86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="O86">
         <f t="shared" si="1"/>
@@ -4965,13 +4991,23 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C87" t="s">
-        <v>294</v>
+      <c r="C87"/>
+      <c r="D87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="O87">
         <f t="shared" si="1"/>
@@ -4980,13 +5016,13 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O88">
         <f t="shared" si="1"/>
@@ -4994,6 +5030,15 @@
       </c>
     </row>
     <row r="89" spans="1:15">
+      <c r="A89" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>296</v>
+      </c>
       <c r="O89">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5003,20 +5048,26 @@
       <c r="A90" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>298</v>
+      </c>
       <c r="O90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15">
+      <c r="A91" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="B91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>34</v>
+      <c r="C91" t="s">
+        <v>300</v>
       </c>
       <c r="O91">
         <f t="shared" si="1"/>
@@ -5024,26 +5075,14 @@
       </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="B92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="O92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="B93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>299</v>
+      <c r="A93" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="O93">
         <f t="shared" si="1"/>
@@ -5051,14 +5090,29 @@
       </c>
     </row>
     <row r="94" spans="1:15">
+      <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="2" t="s">
-        <v>300</v>
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="O95">
         <f t="shared" si="1"/>
@@ -5066,101 +5120,35 @@
       </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>301</v>
-      </c>
-      <c r="F96" t="s">
-        <v>302</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96"/>
-      <c r="I96" t="s">
-        <v>62</v>
-      </c>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96" t="s">
-        <v>34</v>
-      </c>
-      <c r="M96" t="s">
-        <v>63</v>
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="O97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97"/>
-      <c r="I97" t="s">
-        <v>67</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97" t="s">
-        <v>34</v>
-      </c>
-      <c r="M97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98" t="s">
-        <v>305</v>
-      </c>
-      <c r="F98" t="s">
-        <v>306</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98"/>
-      <c r="I98" t="s">
-        <v>72</v>
-      </c>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98" t="s">
-        <v>34</v>
-      </c>
-      <c r="M98" t="s">
-        <v>73</v>
+      <c r="O98">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -5168,17 +5156,17 @@
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -5186,237 +5174,291 @@
         <v>34</v>
       </c>
       <c r="M99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" t="s">
+        <v>307</v>
+      </c>
+      <c r="F100" t="s">
+        <v>308</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100" t="s">
+        <v>67</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100" t="s">
+        <v>34</v>
+      </c>
+      <c r="M100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" t="s">
+        <v>310</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101" t="s">
+        <v>72</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102" t="s">
+        <v>312</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102" t="s">
+        <v>72</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G100" s="2">
+    <row r="103" spans="1:15">
+      <c r="A103" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" s="2">
         <v>1</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="I103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M100" t="s">
-        <v>314</v>
-      </c>
-      <c r="O100">
+      <c r="M103" t="s">
+        <v>318</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G101" s="2">
+    <row r="104" spans="1:15">
+      <c r="A104" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" s="2">
         <v>1</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="I104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M101" t="s">
-        <v>316</v>
-      </c>
-      <c r="O101">
+      <c r="M104" t="s">
+        <v>320</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B102" s="2" t="s">
+    <row r="105" spans="1:15">
+      <c r="A105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M102" t="s">
-        <v>322</v>
-      </c>
-      <c r="O102">
+      <c r="M105" t="s">
+        <v>326</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B103" s="2" t="s">
+    <row r="106" spans="1:15">
+      <c r="A106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M103" t="s">
-        <v>328</v>
-      </c>
-      <c r="O103">
+      <c r="M106" t="s">
+        <v>332</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="2" t="s">
+    <row r="107" spans="1:15">
+      <c r="A107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M104" t="s">
-        <v>331</v>
-      </c>
-      <c r="O104">
+      <c r="M107" t="s">
+        <v>335</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B105" s="2" t="s">
+    <row r="108" spans="1:15">
+      <c r="A108" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M105" t="s">
-        <v>335</v>
-      </c>
-      <c r="O105">
+      <c r="M108" t="s">
+        <v>339</v>
+      </c>
+      <c r="O108">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="O109">
         <f t="shared" si="1"/>
@@ -5425,115 +5467,154 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M110" t="s">
-        <v>346</v>
       </c>
       <c r="O110">
         <f t="shared" si="1"/>
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M111" t="s">
-        <v>351</v>
-      </c>
-      <c r="N111" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O111">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M112" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="O112">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M113" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="O113">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M114" t="s">
+        <v>355</v>
+      </c>
+      <c r="N114" t="s">
+        <v>356</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M115" t="s">
+        <v>361</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>363</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M116" t="s">
+        <v>366</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5542,19 +5623,19 @@
       <formula>280</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O113">
+  <conditionalFormatting sqref="O4:O116">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>260</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O113">
+  <conditionalFormatting sqref="O4:O116">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>260</formula>
       <formula>280</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I105" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
+    <hyperlink ref="I108" r:id="rId1" xr:uid="{DC2AB3AB-BDC8-483B-9481-2919A79DA9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -5566,7 +5647,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E17" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5584,263 +5665,263 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="B3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="B4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="B5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="B6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="B7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="B8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="B9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="B10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="B11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="B12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="B13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="B14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="B15" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="B16" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75">
       <c r="B17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75">
       <c r="B18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75">
       <c r="B19" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75">
       <c r="B20" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75">
       <c r="B21" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75">
       <c r="B22" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75">
       <c r="B23" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75">
       <c r="B24" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F24" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75">
       <c r="E25" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75"/>

--- a/messagesText.xlsx
+++ b/messagesText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3388\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_b22\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BB0122-9A8E-44D7-85CE-CE6302ABF1F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205398F3-F209-46B0-8C5B-7D600FF2E96B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25515" windowHeight="15540" xr2:uid="{7A26092E-A6D3-8045-8EF9-FFD59CDB767A}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="438">
   <si>
     <t xml:space="preserve">FunctionID </t>
   </si>
@@ -233,7 +233,7 @@
     <t>First post</t>
   </si>
   <si>
-    <t>WitnessTree_higherRes.png</t>
+    <t>WitnessTree_higherRes.jpg</t>
   </si>
   <si>
     <t>Witness Tree</t>
@@ -242,7 +242,7 @@
     <t>Audience</t>
   </si>
   <si>
-    <t>Hello, World! I am more than a century old red oak tree at %s in %s: one of the oldest living organisms on the internet! Follow me to learn more about my life in a changing environment. If you want to know more about how I work, to go: %s.</t>
+    <t>Hello, World! I am a century-old red oak at %s in %s: one of the oldest living organisms on the internet! Follow me to learn more about my life in a changing environment. For more on info how I work, go to: %s.</t>
   </si>
   <si>
     <t>checkNewYears</t>
@@ -254,9 +254,6 @@
     <t>yyyy-01-01</t>
   </si>
   <si>
-    <t>yyyy-01-01 23:59:59</t>
-  </si>
-  <si>
     <t>SensorData</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>yyyy-03-04</t>
   </si>
   <si>
-    <t>yyyy-03-04 23:59:59</t>
-  </si>
-  <si>
     <t>Photos from wildlife camera</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>yyyy-03-14</t>
   </si>
   <si>
-    <t>yyyy-03-14 23:59:59</t>
-  </si>
-  <si>
     <t>witnesstree_v3_sideview3.png</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>yyyy-03-21</t>
   </si>
   <si>
-    <t>yyyy-03-21 23:59:59</t>
-  </si>
-  <si>
     <t>BarnTower.png</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>yyyy-03-22</t>
   </si>
   <si>
-    <t>yyyy-03-22 23:59:59</t>
-  </si>
-  <si>
     <t>transpiration.png</t>
   </si>
   <si>
@@ -401,9 +386,6 @@
     <t>yyyy-04-22</t>
   </si>
   <si>
-    <t>yyyy-04-22 23:59:59</t>
-  </si>
-  <si>
     <t>Join us as we celebrate #EarthDay! Trees are really important to balancing the amount of carbon dioxide in the air and creating livable conditions for humans.</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t>yyyy-10-31</t>
   </si>
   <si>
-    <t>yyyy-10-31 23:59:59</t>
-  </si>
-  <si>
     <t>Happy #Halloween! What's your #costume? Are you going as a tree? </t>
   </si>
   <si>
@@ -1416,9 +1395,6 @@
   </si>
   <si>
     <t>xxxx-07-18</t>
-  </si>
-  <si>
-    <t>WitnessTree_higherRes.jpg</t>
   </si>
   <si>
     <t>Witness Tree image</t>
@@ -1515,6 +1491,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -1609,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1619,13 +1598,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2639,8 +2637,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L103" sqref="L103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -2650,8 +2648,8 @@
     <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="16" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="11.75" style="2" customWidth="1"/>
     <col min="10" max="11" width="22.625" style="2" customWidth="1"/>
@@ -2672,10 +2670,10 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -2710,7 +2708,7 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
@@ -2725,7 +2723,7 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>43663.503472222219</v>
       </c>
       <c r="F4" s="15">
@@ -2748,7 +2746,7 @@
       </c>
       <c r="O4">
         <f>LEN(M4)</f>
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2761,20 +2759,20 @@
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
+      <c r="F5" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O74" si="0">LEN(M5)</f>
@@ -2783,28 +2781,28 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
+      <c r="F6" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -2813,31 +2811,31 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
+      <c r="F7" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
@@ -2846,31 +2844,31 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
+      <c r="F8" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -2879,31 +2877,31 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
@@ -2912,28 +2910,28 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
@@ -2942,34 +2940,34 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
@@ -2978,34 +2976,34 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -3014,25 +3012,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -3041,28 +3039,28 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
@@ -3071,28 +3069,28 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G15" s="2">
         <v>10</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
@@ -3101,28 +3099,28 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
@@ -3131,31 +3129,31 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
@@ -3164,28 +3162,28 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
@@ -3194,28 +3192,28 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -3224,31 +3222,31 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
@@ -3257,28 +3255,28 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>87</v>
+      <c r="E21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
@@ -3287,28 +3285,28 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>87</v>
+      <c r="E22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
@@ -3317,28 +3315,28 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G23" s="2">
         <v>10</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
@@ -3347,28 +3345,28 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G24" s="2">
         <v>10</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
@@ -3377,25 +3375,25 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G25" s="2">
         <v>10</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
@@ -3404,25 +3402,25 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
@@ -3431,25 +3429,25 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
@@ -3458,25 +3456,25 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
@@ -3485,25 +3483,25 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O29">
         <f t="shared" si="0"/>
@@ -3512,19 +3510,19 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -3532,8 +3530,8 @@
       <c r="K30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="14" t="s">
-        <v>115</v>
+      <c r="M30" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="O30">
         <f>LEN(M30)</f>
@@ -3548,7 +3546,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
@@ -3557,28 +3555,28 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="G33" s="2">
         <v>9</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
@@ -3587,28 +3585,28 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="2">
         <v>9</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
@@ -3617,28 +3615,28 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>127</v>
+      <c r="E35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="G35" s="2">
         <v>9</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
@@ -3647,28 +3645,28 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="G36" s="2">
         <v>9</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O36">
         <f t="shared" si="0"/>
@@ -3677,25 +3675,25 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G37" s="2">
         <v>7</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
@@ -3704,25 +3702,25 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G38" s="2">
         <v>7</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
@@ -3731,25 +3729,25 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G39" s="2">
         <v>6</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O39">
         <f t="shared" si="0"/>
@@ -3758,25 +3756,25 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
@@ -3785,25 +3783,25 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G41" s="2">
         <v>6</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -3812,25 +3810,25 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G42" s="2">
         <v>6</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
@@ -3839,28 +3837,28 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
@@ -3869,28 +3867,28 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
@@ -3899,28 +3897,28 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O45">
         <f t="shared" si="0"/>
@@ -3929,28 +3927,28 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O46">
         <f t="shared" si="0"/>
@@ -3959,28 +3957,28 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
@@ -3989,28 +3987,28 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
@@ -4019,28 +4017,28 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
@@ -4049,28 +4047,28 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O50">
         <f t="shared" si="0"/>
@@ -4079,28 +4077,28 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
@@ -4109,28 +4107,28 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O52">
         <f t="shared" si="0"/>
@@ -4139,28 +4137,28 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
@@ -4169,28 +4167,28 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="G54" s="2">
         <v>5</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
@@ -4199,28 +4197,28 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
@@ -4229,19 +4227,19 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
@@ -4250,31 +4248,31 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M57" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O57">
         <f t="shared" si="0"/>
@@ -4283,31 +4281,31 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>188</v>
+      <c r="E58" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="G58" s="2">
         <v>5</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M58" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
@@ -4316,16 +4314,16 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="O59">
         <f t="shared" si="0"/>
@@ -4341,7 +4339,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O61">
         <f t="shared" si="0"/>
@@ -4350,34 +4348,34 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M62" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
@@ -4386,34 +4384,34 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G63" s="2">
         <v>3</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M63" s="14" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O63">
         <f t="shared" si="0"/>
@@ -4422,123 +4420,123 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M64" s="14" t="s">
-        <v>140</v>
+        <v>193</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G65" s="2">
         <v>3</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M65" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M66" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G67" s="2">
         <v>3</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M67" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O68">
         <f t="shared" si="0"/>
@@ -4547,22 +4545,22 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M69" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O69">
         <f t="shared" si="0"/>
@@ -4571,19 +4569,19 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M70" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O70">
         <f t="shared" si="0"/>
@@ -4592,19 +4590,19 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M71" s="14" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O71">
         <f t="shared" si="0"/>
@@ -4613,33 +4611,33 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>161</v>
+        <v>213</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="14" t="s">
-        <v>140</v>
+      <c r="M72" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O72">
         <f t="shared" si="0"/>
@@ -4648,31 +4646,31 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C73"/>
       <c r="D73" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>161</v>
+        <v>213</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="14" t="s">
-        <v>140</v>
+      <c r="M73" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O73">
         <f t="shared" si="0"/>
@@ -4681,31 +4679,31 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C74"/>
       <c r="D74" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>161</v>
+        <v>213</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="14" t="s">
-        <v>140</v>
+      <c r="M74" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O74">
         <f t="shared" si="0"/>
@@ -4714,31 +4712,31 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C75"/>
       <c r="D75" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75:O117" si="1">LEN(M75)</f>
@@ -4747,31 +4745,31 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C76"/>
       <c r="D76" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O76">
         <f t="shared" si="1"/>
@@ -4780,31 +4778,31 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C77"/>
       <c r="D77" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" s="8" t="s">
         <v>228</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O77">
         <f t="shared" si="1"/>
@@ -4826,7 +4824,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O80">
         <f t="shared" si="1"/>
@@ -4835,10 +4833,10 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M81" s="1"/>
       <c r="O81">
@@ -4848,19 +4846,19 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M82" s="14" t="s">
-        <v>140</v>
+        <v>235</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O82">
         <f t="shared" si="1"/>
@@ -4869,19 +4867,19 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M83" s="14" t="s">
-        <v>140</v>
+        <v>238</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O83">
         <f t="shared" si="1"/>
@@ -4890,19 +4888,19 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M84" s="14" t="s">
-        <v>140</v>
+        <v>238</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O84">
         <f t="shared" si="1"/>
@@ -4911,16 +4909,16 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>140</v>
+        <v>242</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O85">
         <f t="shared" si="1"/>
@@ -4929,16 +4927,16 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>140</v>
+        <v>244</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O86">
         <f t="shared" si="1"/>
@@ -4947,16 +4945,16 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
-      </c>
-      <c r="M87" s="14" t="s">
-        <v>140</v>
+        <v>246</v>
+      </c>
+      <c r="M87" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O87">
         <f t="shared" si="1"/>
@@ -4965,16 +4963,16 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="M88" s="14" t="s">
-        <v>140</v>
+        <v>248</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O88">
         <f t="shared" si="1"/>
@@ -4989,7 +4987,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O90">
         <f t="shared" si="1"/>
@@ -4998,37 +4996,37 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
-      </c>
-      <c r="E91" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>114</v>
+        <v>252</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G91">
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M91" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O91">
         <f t="shared" si="1"/>
@@ -5037,37 +5035,37 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
-      </c>
-      <c r="E92" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>114</v>
+        <v>252</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M92" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O92">
         <f t="shared" si="1"/>
@@ -5076,37 +5074,37 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
-      </c>
-      <c r="E93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>114</v>
+        <v>252</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M93" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O93">
         <f t="shared" si="1"/>
@@ -5115,37 +5113,37 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>114</v>
+        <v>252</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M94" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O94">
         <f t="shared" si="1"/>
@@ -5154,16 +5152,16 @@
     </row>
     <row r="95" spans="1:15">
       <c r="B95" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M95" s="14" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O95">
         <f t="shared" si="1"/>
@@ -5172,16 +5170,16 @@
     </row>
     <row r="96" spans="1:15">
       <c r="B96" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M96" s="14" t="s">
-        <v>140</v>
+        <v>57</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O96">
         <f t="shared" si="1"/>
@@ -5190,13 +5188,13 @@
     </row>
     <row r="97" spans="1:15">
       <c r="B97" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M97" s="14" t="s">
-        <v>140</v>
+        <v>258</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O97">
         <f t="shared" si="1"/>
@@ -5211,7 +5209,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O99">
         <f t="shared" si="1"/>
@@ -5220,155 +5218,155 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" t="s">
-        <v>268</v>
-      </c>
-      <c r="F100" t="s">
-        <v>269</v>
+      <c r="E100" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
-      <c r="L100" s="2" t="s">
+      <c r="L100" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
         <v>17</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
-      <c r="E101" t="s">
-        <v>273</v>
-      </c>
-      <c r="F101" t="s">
-        <v>274</v>
+      <c r="E101" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
-      <c r="L101" s="2" t="s">
+      <c r="L101" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
-      <c r="E102" t="s">
-        <v>278</v>
-      </c>
-      <c r="F102" t="s">
-        <v>279</v>
+      <c r="E102" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="G102">
         <v>2</v>
       </c>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102" s="2" t="s">
+      <c r="L102" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M102" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
-      <c r="E103" t="s">
-        <v>283</v>
-      </c>
-      <c r="F103" t="s">
-        <v>284</v>
+      <c r="E103" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="L103" s="2" t="s">
+      <c r="L103" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M103" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M104" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O104">
         <f t="shared" si="1"/>
@@ -5377,31 +5375,31 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>282</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M105" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O105">
         <f t="shared" si="1"/>
@@ -5410,28 +5408,28 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M106" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O106">
         <f t="shared" si="1"/>
@@ -5440,28 +5438,28 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M107" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="O107">
         <f t="shared" si="1"/>
@@ -5470,25 +5468,25 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="K108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M108" t="s">
         <v>301</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M108" t="s">
-        <v>308</v>
       </c>
       <c r="O108">
         <f t="shared" si="1"/>
@@ -5497,25 +5495,25 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M109" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O109">
         <f t="shared" si="1"/>
@@ -5524,16 +5522,16 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>140</v>
+        <v>307</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O110">
         <f t="shared" si="1"/>
@@ -5542,16 +5540,16 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M111" s="14" t="s">
-        <v>140</v>
+        <v>309</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O111">
         <f t="shared" si="1"/>
@@ -5560,10 +5558,10 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>140</v>
+        <v>310</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O112">
         <f t="shared" si="1"/>
@@ -5572,16 +5570,16 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>140</v>
+        <v>312</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="O113">
         <f t="shared" si="1"/>
@@ -5590,25 +5588,25 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M114" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O114">
         <f t="shared" si="1"/>
@@ -5617,28 +5615,28 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M115" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N115" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O115">
         <f t="shared" si="1"/>
@@ -5647,25 +5645,25 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M116" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O116">
         <f t="shared" si="1"/>
@@ -5674,25 +5672,25 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M117" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="O117">
         <f t="shared" si="1"/>
@@ -5701,7 +5699,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5848,263 +5846,263 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="B3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="B4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="B5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="B6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="B7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="B8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="B9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="B10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="B11" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="B12" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="B13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="B14" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="B15" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="B16" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75">
       <c r="B17" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75">
       <c r="B18" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E18" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75">
       <c r="B19" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75">
       <c r="B20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75">
       <c r="B21" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75">
       <c r="B22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75">
       <c r="B23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75">
       <c r="B24" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75">
       <c r="E25" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75"/>
@@ -6125,7 +6123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BF53E-7CDE-4246-86A4-9BE54D73559D}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -6172,7 +6170,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -6201,19 +6199,19 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>415</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -6221,7 +6219,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6241,14 +6239,14 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6261,137 +6259,137 @@
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6409,158 +6407,158 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -6578,36 +6576,36 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J18" s="2"/>
       <c r="L18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O18">
         <f t="shared" ref="O18:O21" si="0">LEN(M18)</f>
@@ -6616,33 +6614,33 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J19" s="2"/>
       <c r="L19" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -6651,25 +6649,25 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F21" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
@@ -6678,25 +6676,25 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F22" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O22">
         <f t="shared" ref="O22" si="1">LEN(M22)</f>
@@ -6705,25 +6703,25 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="I23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="O23">
         <f t="shared" ref="O23" si="2">LEN(M23)</f>
@@ -6732,25 +6730,25 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F24" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I24" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="O24">
         <f t="shared" ref="O24" si="3">LEN(M24)</f>
@@ -6759,28 +6757,28 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H26" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="I26" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M26" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="O26">
         <f t="shared" ref="O26" si="4">LEN(M26)</f>
@@ -6789,25 +6787,25 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="O28">
         <f t="shared" ref="O28" si="5">LEN(M28)</f>
@@ -6816,22 +6814,22 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M29" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="O29">
         <f t="shared" ref="O29" si="6">LEN(M29)</f>
@@ -6840,28 +6838,28 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O31">
         <f t="shared" ref="O31:O34" si="7">LEN(M31)</f>
@@ -6870,28 +6868,28 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
@@ -6900,28 +6898,28 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
@@ -6930,28 +6928,28 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
